--- a/tba/excel_data/Match Scouting Results.xlsx
+++ b/tba/excel_data/Match Scouting Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnhurrell/Development/fairport-robotics/ScoutingPASSSync/tba/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90950F2-BAE5-504B-BFEC-834D249F8D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152EEBA3-56B2-E84B-BE79-FCC6D220BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MatchScoutingData" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="336">
   <si>
     <t>Key</t>
   </si>
@@ -147,31 +147,31 @@
     <t>TBA Key</t>
   </si>
   <si>
-    <t>2025nyro</t>
+    <t>2025nytr</t>
   </si>
   <si>
     <t>FIRST Key</t>
   </si>
   <si>
-    <t>nyro</t>
+    <t>nytr</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Finger Lakes Regional</t>
+    <t>New York Tech Valley Regional</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Center For Integrated Manufacturing Studies (CIMS)</t>
+    <t>51 S Pearl St</t>
   </si>
   <si>
     <t>Start Date</t>
   </si>
   <si>
-    <t>2025-03-12</t>
+    <t>2025-03-26</t>
   </si>
   <si>
     <t>Team Number</t>
@@ -222,31 +222,22 @@
     <t>frc250</t>
   </si>
   <si>
-    <t>Mechanical Marauders</t>
+    <t>TechKnights</t>
   </si>
   <si>
-    <t>Bay Shore High School</t>
+    <t>Brooklyn Technical High School</t>
   </si>
   <si>
-    <t>frc271</t>
+    <t>frc334</t>
   </si>
   <si>
-    <t>G.R.R. (Greater Rochester Robotics)</t>
+    <t>Robotic Eagles</t>
   </si>
   <si>
-    <t>Churchville Chili High School</t>
+    <t>Hauppauge High School</t>
   </si>
   <si>
-    <t>frc340</t>
-  </si>
-  <si>
-    <t>The Circuit Stompers</t>
-  </si>
-  <si>
-    <t>Newfane High School</t>
-  </si>
-  <si>
-    <t>frc378</t>
+    <t>frc358</t>
   </si>
   <si>
     <t>Rust Belt Robotics</t>
@@ -256,24 +247,6 @@
   </si>
   <si>
     <t>frc424</t>
-  </si>
-  <si>
-    <t>The PSIcotics</t>
-  </si>
-  <si>
-    <t>Lindenhurst Senior High School</t>
-  </si>
-  <si>
-    <t>frc533</t>
-  </si>
-  <si>
-    <t>Longwood RoboLions</t>
-  </si>
-  <si>
-    <t>Longwood High School</t>
-  </si>
-  <si>
-    <t>frc564</t>
   </si>
   <si>
     <t>Fairport Robotics</t>
@@ -294,13 +267,22 @@
     <t>frc639</t>
   </si>
   <si>
-    <t>Bison Robotics</t>
+    <t>The Mechanical Bulls</t>
   </si>
   <si>
-    <t>Beachwood High School</t>
+    <t>Smithtown High School-East &amp; Smithtown High School-West</t>
   </si>
   <si>
-    <t>frc695</t>
+    <t>frc810</t>
+  </si>
+  <si>
+    <t>TEAM  R. I. C. E.</t>
+  </si>
+  <si>
+    <t>Southold Jr Sr High School</t>
+  </si>
+  <si>
+    <t>frc870</t>
   </si>
   <si>
     <t>SPARX</t>
@@ -312,40 +294,22 @@
     <t>frc1126</t>
   </si>
   <si>
-    <t>Saint Ignatius High School Robotics Team</t>
+    <t>Hicksville J-Birds</t>
   </si>
   <si>
-    <t>Saint Ignatius High School</t>
+    <t>Hicksville High School</t>
   </si>
   <si>
-    <t>frc1308</t>
+    <t>frc1468</t>
   </si>
   <si>
-    <t>Finney Falcons</t>
+    <t>Falcons</t>
   </si>
   <si>
-    <t>The Charles Finney School</t>
+    <t>Albany High School</t>
   </si>
   <si>
-    <t>frc1405</t>
-  </si>
-  <si>
-    <t>Warlocks</t>
-  </si>
-  <si>
-    <t>Lockport High School</t>
-  </si>
-  <si>
-    <t>frc1507</t>
-  </si>
-  <si>
-    <t>Rolling Thunder</t>
-  </si>
-  <si>
-    <t>Penfield High School</t>
-  </si>
-  <si>
-    <t>frc1511</t>
+    <t>frc1493</t>
   </si>
   <si>
     <t>Raider Robotics</t>
@@ -357,24 +321,6 @@
     <t>frc1518</t>
   </si>
   <si>
-    <t>Devil Tech</t>
-  </si>
-  <si>
-    <t>Victor High School</t>
-  </si>
-  <si>
-    <t>frc1559</t>
-  </si>
-  <si>
-    <t>Scitobor Robotics</t>
-  </si>
-  <si>
-    <t>Red Jacket High School</t>
-  </si>
-  <si>
-    <t>frc1585</t>
-  </si>
-  <si>
     <t>Greece Gladiators</t>
   </si>
   <si>
@@ -384,58 +330,40 @@
     <t>frc1591</t>
   </si>
   <si>
-    <t>The Flying Circuits</t>
+    <t>RoboTigers</t>
   </si>
   <si>
-    <t>Orange High School</t>
+    <t>Queens Technical High School</t>
   </si>
   <si>
-    <t>frc1787</t>
+    <t>frc1796</t>
   </si>
   <si>
-    <t>The Lightning Bots</t>
+    <t>Warriors of East Harlem</t>
   </si>
   <si>
-    <t>Champion High School</t>
+    <t>NASA</t>
   </si>
   <si>
-    <t>frc2010</t>
+    <t>frc1880</t>
   </si>
   <si>
-    <t>CougarTech</t>
+    <t>Southern Tier Robotics</t>
   </si>
   <si>
-    <t>Honeoye Falls Lima High School &amp; Rush Henrietta Senior High Sch</t>
+    <t>Vestal Senior High School</t>
   </si>
   <si>
-    <t>frc2228</t>
+    <t>frc2053</t>
   </si>
   <si>
-    <t>The Mavericks</t>
+    <t>Steel Hawks</t>
   </si>
   <si>
-    <t>Ehove Career Center</t>
+    <t>Townsend Harris High School</t>
   </si>
   <si>
-    <t>frc2252</t>
-  </si>
-  <si>
-    <t>Xcentrics -Mercy Robotics</t>
-  </si>
-  <si>
-    <t>Our Lady of Mercy School</t>
-  </si>
-  <si>
-    <t>frc2340</t>
-  </si>
-  <si>
-    <t>Mountaineer Area RoboticS (MARS)</t>
-  </si>
-  <si>
-    <t>MARS &amp; NASA</t>
-  </si>
-  <si>
-    <t>frc2614</t>
+    <t>frc2601</t>
   </si>
   <si>
     <t>Shaker Robotics</t>
@@ -447,6 +375,24 @@
     <t>frc2791</t>
   </si>
   <si>
+    <t>Regal Eagles</t>
+  </si>
+  <si>
+    <t>Bethpage High School</t>
+  </si>
+  <si>
+    <t>frc2869</t>
+  </si>
+  <si>
+    <t>CyberHawks</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Jr Sr HS</t>
+  </si>
+  <si>
+    <t>frc2875</t>
+  </si>
+  <si>
     <t>TAN(X)</t>
   </si>
   <si>
@@ -456,24 +402,6 @@
     <t>frc3003</t>
   </si>
   <si>
-    <t>Bx Quixote</t>
-  </si>
-  <si>
-    <t>Bronx Engr &amp; Tech Academy</t>
-  </si>
-  <si>
-    <t>frc3004</t>
-  </si>
-  <si>
-    <t>Ranger Robotics</t>
-  </si>
-  <si>
-    <t>Spencerport High School</t>
-  </si>
-  <si>
-    <t>frc3015</t>
-  </si>
-  <si>
     <t>Team 0xBE4</t>
   </si>
   <si>
@@ -481,6 +409,15 @@
   </si>
   <si>
     <t>frc3044</t>
+  </si>
+  <si>
+    <t>Harfangs</t>
+  </si>
+  <si>
+    <t>Triolet</t>
+  </si>
+  <si>
+    <t>frc3117</t>
   </si>
   <si>
     <t>HURRICANES</t>
@@ -510,58 +447,76 @@
     <t>frc3181</t>
   </si>
   <si>
-    <t>Electric Fire</t>
+    <t>Hyperion</t>
   </si>
   <si>
-    <t>Notre Dame High School</t>
+    <t>De La Montée (Le Ber)</t>
   </si>
   <si>
-    <t>frc3799</t>
+    <t>frc3360</t>
   </si>
   <si>
-    <t>Roc City Robotix</t>
+    <t>Robotronix</t>
   </si>
   <si>
-    <t>Edison Career and Technology High School</t>
+    <t>Ecole Cavelier-de LaSalle</t>
   </si>
   <si>
-    <t>frc3838</t>
+    <t>frc3550</t>
   </si>
   <si>
-    <t>SUITS</t>
+    <t>RoboGym Robotics</t>
   </si>
   <si>
-    <t>4-H</t>
+    <t>North Shore High School</t>
   </si>
   <si>
-    <t>frc3951</t>
+    <t>frc3950</t>
   </si>
   <si>
-    <t>OZone</t>
+    <t>Ossining O-Bots</t>
   </si>
   <si>
-    <t>Berlin High School &amp; Olentangy High School &amp; Orange High School &amp; Liberty High School</t>
+    <t>Ossining High School</t>
   </si>
   <si>
-    <t>frc4611</t>
+    <t>frc4122</t>
   </si>
   <si>
-    <t>Electric Mayhem</t>
+    <t>Infernobotix</t>
   </si>
   <si>
-    <t>Nichols School</t>
+    <t>Center Moriches High School</t>
   </si>
   <si>
-    <t>frc4930</t>
+    <t>frc4458</t>
   </si>
   <si>
-    <t>Alumiboti</t>
+    <t>Rambots</t>
   </si>
   <si>
-    <t>St Joseph Collegiate Institute</t>
+    <t>Manhattan Ctr Science &amp; Math</t>
   </si>
   <si>
-    <t>frc5590</t>
+    <t>frc4571</t>
+  </si>
+  <si>
+    <t>TroyBotics</t>
+  </si>
+  <si>
+    <t>Troy High School</t>
+  </si>
+  <si>
+    <t>frc5149</t>
+  </si>
+  <si>
+    <t>Ultime</t>
+  </si>
+  <si>
+    <t>Institut Secondaire Keranna</t>
+  </si>
+  <si>
+    <t>frc5528</t>
   </si>
   <si>
     <t>TVHS Dragons</t>
@@ -573,6 +528,33 @@
     <t>frc5881</t>
   </si>
   <si>
+    <t>The Northwoodians</t>
+  </si>
+  <si>
+    <t>Northwood School</t>
+  </si>
+  <si>
+    <t>frc6300</t>
+  </si>
+  <si>
+    <t>8-bit RAMs</t>
+  </si>
+  <si>
+    <t>Clarkstown North High School</t>
+  </si>
+  <si>
+    <t>frc6401</t>
+  </si>
+  <si>
+    <t>Robotic Rams</t>
+  </si>
+  <si>
+    <t>Ulster Boces</t>
+  </si>
+  <si>
+    <t>frc6463</t>
+  </si>
+  <si>
     <t>Artemis</t>
   </si>
   <si>
@@ -582,13 +564,22 @@
     <t>frc6621</t>
   </si>
   <si>
-    <t>Cadet Robotics</t>
+    <t>MechaSpartans</t>
   </si>
   <si>
-    <t>Hilton High School</t>
+    <t>John Adams High School</t>
   </si>
   <si>
-    <t>frc6868</t>
+    <t>frc6648</t>
+  </si>
+  <si>
+    <t>Mineola Wild Reds</t>
+  </si>
+  <si>
+    <t>Mineola High School</t>
+  </si>
+  <si>
+    <t>frc6806</t>
   </si>
   <si>
     <t>SO BOTZ</t>
@@ -600,76 +591,112 @@
     <t>frc6911</t>
   </si>
   <si>
-    <t>Perkins Pirates</t>
+    <t>The ROBOlympians</t>
   </si>
   <si>
-    <t>Perkins High School &amp; Family/Community</t>
+    <t>Lake Placid Middle High School</t>
   </si>
   <si>
-    <t>frc7165</t>
+    <t>frc7030</t>
   </si>
   <si>
-    <t>Tigers</t>
+    <t>Duanesburg Jr./Sr. High School</t>
   </si>
   <si>
-    <t>Rochester Prep High School</t>
+    <t>Duanesburg Jr Sr High School</t>
   </si>
   <si>
-    <t>frc7903</t>
+    <t>frc7031</t>
   </si>
   <si>
-    <t>RoboManiacs</t>
+    <t>CyBearBots</t>
   </si>
   <si>
-    <t>Mc2 STEM Hs-Grt Lakes Sci Ctr</t>
+    <t>Brewster High School</t>
   </si>
   <si>
-    <t>frc8140</t>
+    <t>frc7504</t>
   </si>
   <si>
-    <t>AstroCircuits</t>
+    <t>ASTRO</t>
   </si>
   <si>
-    <t>John Marshall-Info Tech</t>
+    <t>Académie Ste-Therese</t>
   </si>
   <si>
-    <t>frc8243</t>
+    <t>frc7605</t>
   </si>
   <si>
-    <t>The Giant Diencephalic BrainSTEM Robotics Team</t>
+    <t>HVPA Dragons</t>
+  </si>
+  <si>
+    <t>Home School</t>
+  </si>
+  <si>
+    <t>frc7718</t>
+  </si>
+  <si>
+    <t>Bulldog Bytes</t>
+  </si>
+  <si>
+    <t>Irvington High School</t>
+  </si>
+  <si>
+    <t>frc7759</t>
+  </si>
+  <si>
+    <t>Alpha Lab</t>
+  </si>
+  <si>
+    <t>Collège Notre-Dame-de-Lourdes</t>
+  </si>
+  <si>
+    <t>frc8067</t>
+  </si>
+  <si>
+    <t>Team Sirius</t>
+  </si>
+  <si>
+    <t>Ayet Azer Aran Savunma Sanayi Mesleki ve Teknik Anadolu Lisesi</t>
+  </si>
+  <si>
+    <t>frc9468</t>
+  </si>
+  <si>
+    <t>Dynamiques 9624</t>
+  </si>
+  <si>
+    <t>College Charles Lemoyne</t>
+  </si>
+  <si>
+    <t>frc9624</t>
+  </si>
+  <si>
+    <t>SUNY Poly Wildcat Robotics</t>
   </si>
   <si>
     <t>Family/Community</t>
   </si>
   <si>
-    <t>frc8393</t>
+    <t>frc10352</t>
   </si>
   <si>
-    <t>GRIDLOCK</t>
+    <t>Robo Rhinos</t>
   </si>
   <si>
-    <t>Garrett Morgan School</t>
+    <t>sakhikamva</t>
   </si>
   <si>
-    <t>frc9622</t>
+    <t>frc10404</t>
   </si>
   <si>
-    <t>Lady Voltage</t>
+    <t>RAMpage.AI</t>
   </si>
   <si>
-    <t>John Adams Clg &amp; Career Acad &amp; Lincoln-West HS Global Studies &amp; Davis Aerospace &amp; Maritime HS &amp; JFK E3agle Academy &amp; Cleveland HS for Digital Arts &amp; Cleveland Early College HS &amp; James F Rhodes High School &amp; Int'L Newcomers Acad-Jefferson &amp; Facing History New Tech School &amp; Cleveland Sch of Science &amp; Med &amp; Cleveland Sch of Arch &amp; Design &amp; Mc2 STEM Hs-Grt Lakes Sci Ctr</t>
+    <t>Amsterdam High School</t>
   </si>
   <si>
-    <t>frc9643</t>
-  </si>
-  <si>
-    <t>Crimson Jewels</t>
-  </si>
-  <si>
-    <t>James Monroe Upper School</t>
-  </si>
-  <si>
-    <t>frc10223</t>
+    <t>frc10714</t>
   </si>
   <si>
     <t>Start Time</t>
@@ -693,247 +720,256 @@
     <t>Red 3</t>
   </si>
   <si>
-    <t>2025-03-14 08:50:00</t>
+    <t>2025-03-28 09:00:00</t>
   </si>
   <si>
-    <t>2025-03-14 08:58:00</t>
+    <t>2025-03-28 09:08:00</t>
   </si>
   <si>
-    <t>2025-03-14 09:06:00</t>
+    <t>2025-03-28 09:16:00</t>
   </si>
   <si>
-    <t>2025-03-14 09:14:00</t>
+    <t>2025-03-28 09:24:00</t>
   </si>
   <si>
-    <t>2025-03-14 09:22:00</t>
+    <t>2025-03-28 09:32:00</t>
   </si>
   <si>
-    <t>2025-03-14 09:30:00</t>
+    <t>2025-03-28 09:40:00</t>
   </si>
   <si>
-    <t>2025-03-14 09:38:00</t>
+    <t>2025-03-28 09:48:00</t>
   </si>
   <si>
-    <t>2025-03-14 09:46:00</t>
+    <t>2025-03-28 09:56:00</t>
   </si>
   <si>
-    <t>2025-03-14 09:54:00</t>
+    <t>2025-03-28 10:04:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:02:00</t>
+    <t>2025-03-28 10:12:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:10:00</t>
+    <t>2025-03-28 10:20:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:18:00</t>
+    <t>2025-03-28 10:28:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:26:00</t>
+    <t>2025-03-28 10:36:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:34:00</t>
+    <t>2025-03-28 10:44:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:42:00</t>
+    <t>2025-03-28 10:52:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:50:00</t>
+    <t>2025-03-28 11:00:00</t>
   </si>
   <si>
-    <t>2025-03-14 10:58:00</t>
+    <t>2025-03-28 11:08:00</t>
   </si>
   <si>
-    <t>2025-03-14 11:06:00</t>
+    <t>2025-03-28 11:16:00</t>
   </si>
   <si>
-    <t>2025-03-14 11:14:00</t>
+    <t>2025-03-28 11:24:00</t>
   </si>
   <si>
-    <t>2025-03-14 11:22:00</t>
+    <t>2025-03-28 11:32:00</t>
   </si>
   <si>
-    <t>2025-03-14 11:30:00</t>
+    <t>2025-03-28 11:40:00</t>
   </si>
   <si>
-    <t>2025-03-14 11:38:00</t>
+    <t>2025-03-28 11:48:00</t>
   </si>
   <si>
-    <t>2025-03-14 11:46:00</t>
+    <t>2025-03-28 11:56:00</t>
   </si>
   <si>
-    <t>2025-03-14 11:54:00</t>
+    <t>2025-03-28 12:04:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:00:00</t>
+    <t>2025-03-28 13:00:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:08:00</t>
+    <t>2025-03-28 13:08:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:16:00</t>
+    <t>2025-03-28 13:16:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:24:00</t>
+    <t>2025-03-28 13:24:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:32:00</t>
+    <t>2025-03-28 13:32:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:40:00</t>
+    <t>2025-03-28 13:40:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:48:00</t>
+    <t>2025-03-28 13:48:00</t>
   </si>
   <si>
-    <t>2025-03-14 13:56:00</t>
+    <t>2025-03-28 13:56:00</t>
   </si>
   <si>
-    <t>2025-03-14 14:04:00</t>
+    <t>2025-03-28 14:04:00</t>
   </si>
   <si>
-    <t>2025-03-14 14:12:00</t>
+    <t>2025-03-28 14:12:00</t>
   </si>
   <si>
-    <t>2025-03-14 14:20:00</t>
+    <t>2025-03-28 14:20:00</t>
   </si>
   <si>
-    <t>2025-03-14 14:28:00</t>
+    <t>2025-03-28 14:28:00</t>
   </si>
   <si>
-    <t>2025-03-14 14:36:00</t>
+    <t>2025-03-28 14:36:00</t>
   </si>
   <si>
-    <t>2025-03-14 14:44:00</t>
+    <t>2025-03-28 14:44:00</t>
   </si>
   <si>
-    <t>2025-03-14 14:52:00</t>
+    <t>2025-03-28 14:52:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:00:00</t>
+    <t>2025-03-28 15:00:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:08:00</t>
+    <t>2025-03-28 15:08:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:16:00</t>
+    <t>2025-03-28 15:16:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:24:00</t>
+    <t>2025-03-28 15:24:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:32:00</t>
+    <t>2025-03-28 15:32:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:40:00</t>
+    <t>2025-03-28 15:40:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:48:00</t>
+    <t>2025-03-28 15:48:00</t>
   </si>
   <si>
-    <t>2025-03-14 15:56:00</t>
+    <t>2025-03-28 15:56:00</t>
   </si>
   <si>
-    <t>2025-03-14 16:04:00</t>
+    <t>2025-03-28 16:04:00</t>
   </si>
   <si>
-    <t>2025-03-14 16:12:00</t>
+    <t>2025-03-28 16:12:00</t>
   </si>
   <si>
-    <t>2025-03-14 16:20:00</t>
+    <t>2025-03-28 16:20:00</t>
   </si>
   <si>
-    <t>2025-03-14 16:28:00</t>
+    <t>2025-03-28 16:28:00</t>
   </si>
   <si>
-    <t>2025-03-14 16:36:00</t>
+    <t>2025-03-28 16:36:00</t>
   </si>
   <si>
-    <t>2025-03-14 16:44:00</t>
+    <t>2025-03-28 16:44:00</t>
   </si>
   <si>
-    <t>2025-03-14 16:52:00</t>
+    <t>2025-03-28 16:52:00</t>
   </si>
   <si>
-    <t>2025-03-14 17:00:00</t>
+    <t>2025-03-28 17:00:00</t>
   </si>
   <si>
-    <t>2025-03-14 17:08:00</t>
+    <t>2025-03-28 17:08:00</t>
   </si>
   <si>
-    <t>2025-03-14 17:16:00</t>
+    <t>2025-03-28 17:16:00</t>
   </si>
   <si>
-    <t>2025-03-14 17:24:00</t>
+    <t>2025-03-28 17:24:00</t>
   </si>
   <si>
-    <t>2025-03-14 17:32:00</t>
+    <t>2025-03-28 17:32:00</t>
   </si>
   <si>
-    <t>2025-03-15 08:50:00</t>
+    <t>2025-03-28 17:40:00</t>
   </si>
   <si>
-    <t>2025-03-15 08:58:00</t>
+    <t>2025-03-29 08:50:00</t>
   </si>
   <si>
-    <t>2025-03-15 09:06:00</t>
+    <t>2025-03-29 08:58:00</t>
   </si>
   <si>
-    <t>2025-03-15 09:14:00</t>
+    <t>2025-03-29 09:06:00</t>
   </si>
   <si>
-    <t>2025-03-15 09:22:00</t>
+    <t>2025-03-29 09:14:00</t>
   </si>
   <si>
-    <t>2025-03-15 09:30:00</t>
+    <t>2025-03-29 09:22:00</t>
   </si>
   <si>
-    <t>2025-03-15 09:38:00</t>
+    <t>2025-03-29 09:30:00</t>
   </si>
   <si>
-    <t>2025-03-15 09:46:00</t>
+    <t>2025-03-29 09:38:00</t>
   </si>
   <si>
-    <t>2025-03-15 09:54:00</t>
+    <t>2025-03-29 09:46:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:02:00</t>
+    <t>2025-03-29 09:54:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:10:00</t>
+    <t>2025-03-29 10:02:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:18:00</t>
+    <t>2025-03-29 10:10:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:26:00</t>
+    <t>2025-03-29 10:18:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:34:00</t>
+    <t>2025-03-29 10:26:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:42:00</t>
+    <t>2025-03-29 10:34:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:50:00</t>
+    <t>2025-03-29 10:42:00</t>
   </si>
   <si>
-    <t>2025-03-15 10:58:00</t>
+    <t>2025-03-29 10:50:00</t>
   </si>
   <si>
-    <t>2025-03-15 11:06:00</t>
+    <t>2025-03-29 10:58:00</t>
   </si>
   <si>
-    <t>2025-03-15 11:14:00</t>
+    <t>2025-03-29 11:06:00</t>
   </si>
   <si>
-    <t>2025-03-15 11:22:00</t>
+    <t>2025-03-29 11:14:00</t>
   </si>
   <si>
-    <t>2025-03-15 11:30:00</t>
+    <t>2025-03-29 11:22:00</t>
   </si>
   <si>
-    <t>2025-03-15 11:38:00</t>
+    <t>2025-03-29 11:30:00</t>
+  </si>
+  <si>
+    <t>2025-03-29 11:38:00</t>
+  </si>
+  <si>
+    <t>2025-03-29 11:46:00</t>
+  </si>
+  <si>
+    <t>2025-03-29 11:54:00</t>
   </si>
   <si>
     <t>Auto</t>
@@ -1022,9 +1058,6 @@
   <si>
     <t>Endgame Average</t>
   </si>
-  <si>
-    <t>&lt;--</t>
-  </si>
 </sst>
 </file>
 
@@ -1035,7 +1068,7 @@
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,21 +1104,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1296,7 +1320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
@@ -1418,9 +1442,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE999"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -34846,7 +34867,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE55"/>
+  <dimension ref="A1:AE58"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -34975,7 +34996,7 @@
     </row>
     <row r="6" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -34992,7 +35013,7 @@
     </row>
     <row r="7" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -35009,7 +35030,7 @@
     </row>
     <row r="8" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
@@ -35026,7 +35047,7 @@
     </row>
     <row r="9" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -35035,7 +35056,7 @@
         <v>67</v>
       </c>
       <c r="D9">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -35043,7 +35064,7 @@
     </row>
     <row r="10" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -35060,7 +35081,7 @@
     </row>
     <row r="11" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
-        <v>564</v>
+        <v>810</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -35069,7 +35090,7 @@
         <v>73</v>
       </c>
       <c r="D11">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
@@ -35077,7 +35098,7 @@
     </row>
     <row r="12" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
-        <v>578</v>
+        <v>870</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -35086,7 +35107,7 @@
         <v>76</v>
       </c>
       <c r="D12">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
@@ -35094,7 +35115,7 @@
     </row>
     <row r="13" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
-        <v>639</v>
+        <v>1126</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -35103,7 +35124,7 @@
         <v>79</v>
       </c>
       <c r="D13">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E13" t="s">
         <v>80</v>
@@ -35111,7 +35132,7 @@
     </row>
     <row r="14" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
-        <v>695</v>
+        <v>1468</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
@@ -35120,7 +35141,7 @@
         <v>82</v>
       </c>
       <c r="D14">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="E14" t="s">
         <v>83</v>
@@ -35128,7 +35149,7 @@
     </row>
     <row r="15" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
-        <v>1126</v>
+        <v>1493</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -35137,7 +35158,7 @@
         <v>85</v>
       </c>
       <c r="D15">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E15" t="s">
         <v>86</v>
@@ -35145,7 +35166,7 @@
     </row>
     <row r="16" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
-        <v>1308</v>
+        <v>1518</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -35154,7 +35175,7 @@
         <v>88</v>
       </c>
       <c r="D16">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E16" t="s">
         <v>89</v>
@@ -35162,7 +35183,7 @@
     </row>
     <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
-        <v>1405</v>
+        <v>1591</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
@@ -35171,7 +35192,7 @@
         <v>91</v>
       </c>
       <c r="D17">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -35179,7 +35200,7 @@
     </row>
     <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
-        <v>1507</v>
+        <v>1796</v>
       </c>
       <c r="B18" t="s">
         <v>93</v>
@@ -35188,7 +35209,7 @@
         <v>94</v>
       </c>
       <c r="D18">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E18" t="s">
         <v>95</v>
@@ -35196,7 +35217,7 @@
     </row>
     <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
-        <v>1511</v>
+        <v>1880</v>
       </c>
       <c r="B19" t="s">
         <v>96</v>
@@ -35205,7 +35226,7 @@
         <v>97</v>
       </c>
       <c r="D19">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E19" t="s">
         <v>98</v>
@@ -35213,7 +35234,7 @@
     </row>
     <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
-        <v>1518</v>
+        <v>2053</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
@@ -35222,7 +35243,7 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E20" t="s">
         <v>101</v>
@@ -35230,7 +35251,7 @@
     </row>
     <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
-        <v>1559</v>
+        <v>2601</v>
       </c>
       <c r="B21" t="s">
         <v>102</v>
@@ -35239,7 +35260,7 @@
         <v>103</v>
       </c>
       <c r="D21">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E21" t="s">
         <v>104</v>
@@ -35247,7 +35268,7 @@
     </row>
     <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
-        <v>1585</v>
+        <v>2791</v>
       </c>
       <c r="B22" t="s">
         <v>105</v>
@@ -35256,7 +35277,7 @@
         <v>106</v>
       </c>
       <c r="D22">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E22" t="s">
         <v>107</v>
@@ -35264,7 +35285,7 @@
     </row>
     <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
-        <v>1591</v>
+        <v>2869</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
@@ -35273,7 +35294,7 @@
         <v>109</v>
       </c>
       <c r="D23">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E23" t="s">
         <v>110</v>
@@ -35281,7 +35302,7 @@
     </row>
     <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
-        <v>1787</v>
+        <v>2875</v>
       </c>
       <c r="B24" t="s">
         <v>111</v>
@@ -35290,7 +35311,7 @@
         <v>112</v>
       </c>
       <c r="D24">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E24" t="s">
         <v>113</v>
@@ -35298,7 +35319,7 @@
     </row>
     <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
-        <v>2010</v>
+        <v>3003</v>
       </c>
       <c r="B25" t="s">
         <v>114</v>
@@ -35307,7 +35328,7 @@
         <v>115</v>
       </c>
       <c r="D25">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E25" t="s">
         <v>116</v>
@@ -35315,7 +35336,7 @@
     </row>
     <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
-        <v>2228</v>
+        <v>3044</v>
       </c>
       <c r="B26" t="s">
         <v>117</v>
@@ -35324,7 +35345,7 @@
         <v>118</v>
       </c>
       <c r="D26">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E26" t="s">
         <v>119</v>
@@ -35332,7 +35353,7 @@
     </row>
     <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
-        <v>2252</v>
+        <v>3117</v>
       </c>
       <c r="B27" t="s">
         <v>120</v>
@@ -35341,7 +35362,7 @@
         <v>121</v>
       </c>
       <c r="D27">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E27" t="s">
         <v>122</v>
@@ -35349,7 +35370,7 @@
     </row>
     <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
-        <v>2340</v>
+        <v>3171</v>
       </c>
       <c r="B28" t="s">
         <v>123</v>
@@ -35358,7 +35379,7 @@
         <v>124</v>
       </c>
       <c r="D28">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E28" t="s">
         <v>125</v>
@@ -35366,7 +35387,7 @@
     </row>
     <row r="29" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
-        <v>2614</v>
+        <v>3173</v>
       </c>
       <c r="B29" t="s">
         <v>126</v>
@@ -35375,7 +35396,7 @@
         <v>127</v>
       </c>
       <c r="D29">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E29" t="s">
         <v>128</v>
@@ -35383,7 +35404,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
-        <v>2791</v>
+        <v>3181</v>
       </c>
       <c r="B30" t="s">
         <v>129</v>
@@ -35392,7 +35413,7 @@
         <v>130</v>
       </c>
       <c r="D30">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E30" t="s">
         <v>131</v>
@@ -35400,7 +35421,7 @@
     </row>
     <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
-        <v>3003</v>
+        <v>3360</v>
       </c>
       <c r="B31" t="s">
         <v>132</v>
@@ -35409,7 +35430,7 @@
         <v>133</v>
       </c>
       <c r="D31">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E31" t="s">
         <v>134</v>
@@ -35417,7 +35438,7 @@
     </row>
     <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
-        <v>3004</v>
+        <v>3550</v>
       </c>
       <c r="B32" t="s">
         <v>135</v>
@@ -35426,7 +35447,7 @@
         <v>136</v>
       </c>
       <c r="D32">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E32" t="s">
         <v>137</v>
@@ -35434,7 +35455,7 @@
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
-        <v>3015</v>
+        <v>3950</v>
       </c>
       <c r="B33" t="s">
         <v>138</v>
@@ -35443,7 +35464,7 @@
         <v>139</v>
       </c>
       <c r="D33">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E33" t="s">
         <v>140</v>
@@ -35451,7 +35472,7 @@
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
-        <v>3044</v>
+        <v>4122</v>
       </c>
       <c r="B34" t="s">
         <v>141</v>
@@ -35460,7 +35481,7 @@
         <v>142</v>
       </c>
       <c r="D34">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E34" t="s">
         <v>143</v>
@@ -35468,7 +35489,7 @@
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
-        <v>3171</v>
+        <v>4458</v>
       </c>
       <c r="B35" t="s">
         <v>144</v>
@@ -35477,7 +35498,7 @@
         <v>145</v>
       </c>
       <c r="D35">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E35" t="s">
         <v>146</v>
@@ -35485,7 +35506,7 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
-        <v>3173</v>
+        <v>4571</v>
       </c>
       <c r="B36" t="s">
         <v>147</v>
@@ -35494,7 +35515,7 @@
         <v>148</v>
       </c>
       <c r="D36">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E36" t="s">
         <v>149</v>
@@ -35502,7 +35523,7 @@
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
-        <v>3181</v>
+        <v>5149</v>
       </c>
       <c r="B37" t="s">
         <v>150</v>
@@ -35511,7 +35532,7 @@
         <v>151</v>
       </c>
       <c r="D37">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E37" t="s">
         <v>152</v>
@@ -35519,7 +35540,7 @@
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
-        <v>3799</v>
+        <v>5528</v>
       </c>
       <c r="B38" t="s">
         <v>153</v>
@@ -35528,7 +35549,7 @@
         <v>154</v>
       </c>
       <c r="D38">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E38" t="s">
         <v>155</v>
@@ -35536,7 +35557,7 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
-        <v>3838</v>
+        <v>5881</v>
       </c>
       <c r="B39" t="s">
         <v>156</v>
@@ -35545,7 +35566,7 @@
         <v>157</v>
       </c>
       <c r="D39">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E39" t="s">
         <v>158</v>
@@ -35553,7 +35574,7 @@
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
-        <v>3951</v>
+        <v>6300</v>
       </c>
       <c r="B40" t="s">
         <v>159</v>
@@ -35562,7 +35583,7 @@
         <v>160</v>
       </c>
       <c r="D40">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -35570,7 +35591,7 @@
     </row>
     <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
-        <v>4611</v>
+        <v>6401</v>
       </c>
       <c r="B41" t="s">
         <v>162</v>
@@ -35579,7 +35600,7 @@
         <v>163</v>
       </c>
       <c r="D41">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E41" t="s">
         <v>164</v>
@@ -35587,7 +35608,7 @@
     </row>
     <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
-        <v>4930</v>
+        <v>6463</v>
       </c>
       <c r="B42" t="s">
         <v>165</v>
@@ -35596,7 +35617,7 @@
         <v>166</v>
       </c>
       <c r="D42">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E42" t="s">
         <v>167</v>
@@ -35604,7 +35625,7 @@
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
-        <v>5590</v>
+        <v>6621</v>
       </c>
       <c r="B43" t="s">
         <v>168</v>
@@ -35613,7 +35634,7 @@
         <v>169</v>
       </c>
       <c r="D43">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E43" t="s">
         <v>170</v>
@@ -35621,7 +35642,7 @@
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
-        <v>5881</v>
+        <v>6648</v>
       </c>
       <c r="B44" t="s">
         <v>171</v>
@@ -35630,7 +35651,7 @@
         <v>172</v>
       </c>
       <c r="D44">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E44" t="s">
         <v>173</v>
@@ -35638,7 +35659,7 @@
     </row>
     <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
-        <v>6621</v>
+        <v>6806</v>
       </c>
       <c r="B45" t="s">
         <v>174</v>
@@ -35647,7 +35668,7 @@
         <v>175</v>
       </c>
       <c r="D45">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E45" t="s">
         <v>176</v>
@@ -35655,7 +35676,7 @@
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
-        <v>6868</v>
+        <v>6911</v>
       </c>
       <c r="B46" t="s">
         <v>177</v>
@@ -35672,7 +35693,7 @@
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
-        <v>6911</v>
+        <v>7030</v>
       </c>
       <c r="B47" t="s">
         <v>180</v>
@@ -35689,7 +35710,7 @@
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
-        <v>7165</v>
+        <v>7031</v>
       </c>
       <c r="B48" t="s">
         <v>183</v>
@@ -35706,7 +35727,7 @@
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
-        <v>7903</v>
+        <v>7504</v>
       </c>
       <c r="B49" t="s">
         <v>186</v>
@@ -35723,7 +35744,7 @@
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
-        <v>8140</v>
+        <v>7605</v>
       </c>
       <c r="B50" t="s">
         <v>189</v>
@@ -35732,7 +35753,7 @@
         <v>190</v>
       </c>
       <c r="D50">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E50" t="s">
         <v>191</v>
@@ -35740,7 +35761,7 @@
     </row>
     <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
-        <v>8243</v>
+        <v>7718</v>
       </c>
       <c r="B51" t="s">
         <v>192</v>
@@ -35749,7 +35770,7 @@
         <v>193</v>
       </c>
       <c r="D51">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E51" t="s">
         <v>194</v>
@@ -35757,7 +35778,7 @@
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
-        <v>8393</v>
+        <v>7759</v>
       </c>
       <c r="B52" t="s">
         <v>195</v>
@@ -35766,7 +35787,7 @@
         <v>196</v>
       </c>
       <c r="D52">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E52" t="s">
         <v>197</v>
@@ -35774,7 +35795,7 @@
     </row>
     <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
-        <v>9622</v>
+        <v>8067</v>
       </c>
       <c r="B53" t="s">
         <v>198</v>
@@ -35783,7 +35804,7 @@
         <v>199</v>
       </c>
       <c r="D53">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E53" t="s">
         <v>200</v>
@@ -35791,7 +35812,7 @@
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
-        <v>9643</v>
+        <v>9468</v>
       </c>
       <c r="B54" t="s">
         <v>201</v>
@@ -35808,7 +35829,7 @@
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
-        <v>10223</v>
+        <v>9624</v>
       </c>
       <c r="B55" t="s">
         <v>204</v>
@@ -35817,10 +35838,61 @@
         <v>205</v>
       </c>
       <c r="D55">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E55" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="27">
+        <v>10352</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56">
+        <v>2025</v>
+      </c>
+      <c r="E56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
+        <v>10404</v>
+      </c>
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="27">
+        <v>10714</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58">
+        <v>2025</v>
+      </c>
+      <c r="E58" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -35831,11 +35903,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35845,2111 +35917,2084 @@
     <col min="3" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C2" s="31">
-        <v>8243</v>
+        <v>358</v>
       </c>
       <c r="D2" s="31">
-        <v>1518</v>
+        <v>6621</v>
       </c>
       <c r="E2" s="31">
-        <v>340</v>
+        <v>3950</v>
       </c>
       <c r="F2" s="31">
-        <v>8140</v>
+        <v>639</v>
       </c>
       <c r="G2" s="31">
-        <v>1511</v>
+        <v>7605</v>
       </c>
       <c r="H2" s="31">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C3" s="31">
-        <v>3181</v>
+        <v>1468</v>
       </c>
       <c r="D3" s="31">
-        <v>20</v>
+        <v>1796</v>
       </c>
       <c r="E3" s="31">
-        <v>533</v>
+        <v>9468</v>
       </c>
       <c r="F3" s="31">
-        <v>3004</v>
+        <v>3173</v>
       </c>
       <c r="G3" s="31">
-        <v>4930</v>
+        <v>4458</v>
       </c>
       <c r="H3" s="31">
-        <v>6621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C4" s="31">
-        <v>2340</v>
+        <v>7031</v>
       </c>
       <c r="D4" s="31">
-        <v>3173</v>
+        <v>191</v>
       </c>
       <c r="E4" s="31">
-        <v>9622</v>
+        <v>7718</v>
       </c>
       <c r="F4" s="31">
-        <v>250</v>
+        <v>6463</v>
       </c>
       <c r="G4" s="31">
-        <v>271</v>
+        <v>3117</v>
       </c>
       <c r="H4" s="31">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C5" s="31">
-        <v>2791</v>
+        <v>229</v>
       </c>
       <c r="D5" s="31">
-        <v>7903</v>
+        <v>10714</v>
       </c>
       <c r="E5" s="31">
-        <v>3003</v>
+        <v>810</v>
       </c>
       <c r="F5" s="31">
-        <v>3044</v>
+        <v>2053</v>
       </c>
       <c r="G5" s="31">
-        <v>5881</v>
+        <v>250</v>
       </c>
       <c r="H5" s="31">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C6" s="31">
-        <v>3951</v>
+        <v>7504</v>
       </c>
       <c r="D6" s="31">
-        <v>2614</v>
+        <v>8067</v>
       </c>
       <c r="E6" s="31">
+        <v>7759</v>
+      </c>
+      <c r="F6" s="31">
+        <v>6300</v>
+      </c>
+      <c r="G6" s="31">
+        <v>870</v>
+      </c>
+      <c r="H6" s="31">
         <v>1126</v>
       </c>
-      <c r="F6" s="31">
-        <v>1591</v>
-      </c>
-      <c r="G6" s="31">
-        <v>6911</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C7" s="31">
-        <v>9643</v>
+        <v>6648</v>
       </c>
       <c r="D7" s="31">
-        <v>191</v>
+        <v>1518</v>
       </c>
       <c r="E7" s="31">
-        <v>2252</v>
+        <v>9624</v>
       </c>
       <c r="F7" s="31">
-        <v>2228</v>
+        <v>1591</v>
       </c>
       <c r="G7" s="31">
-        <v>424</v>
+        <v>1880</v>
       </c>
       <c r="H7" s="31">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C8" s="31">
-        <v>378</v>
+        <v>4571</v>
       </c>
       <c r="D8" s="31">
-        <v>639</v>
+        <v>6806</v>
       </c>
       <c r="E8" s="31">
-        <v>2010</v>
+        <v>7030</v>
       </c>
       <c r="F8" s="31">
-        <v>10223</v>
+        <v>5881</v>
       </c>
       <c r="G8" s="31">
-        <v>1787</v>
+        <v>2791</v>
       </c>
       <c r="H8" s="31">
-        <v>3838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C9" s="31">
-        <v>6868</v>
+        <v>3360</v>
       </c>
       <c r="D9" s="31">
-        <v>564</v>
+        <v>3003</v>
       </c>
       <c r="E9" s="31">
-        <v>5590</v>
+        <v>334</v>
       </c>
       <c r="F9" s="31">
-        <v>229</v>
+        <v>2875</v>
       </c>
       <c r="G9" s="31">
-        <v>3799</v>
+        <v>1493</v>
       </c>
       <c r="H9" s="31">
-        <v>8393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>10352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C10" s="31">
-        <v>1405</v>
+        <v>2601</v>
       </c>
       <c r="D10" s="31">
-        <v>4611</v>
+        <v>578</v>
       </c>
       <c r="E10" s="31">
-        <v>7165</v>
+        <v>6911</v>
       </c>
       <c r="F10" s="31">
-        <v>1308</v>
+        <v>4122</v>
       </c>
       <c r="G10" s="31">
-        <v>1507</v>
-      </c>
-      <c r="H10" s="54">
-        <v>578</v>
-      </c>
-      <c r="I10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2869</v>
+      </c>
+      <c r="H10" s="31">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C11" s="31">
-        <v>6621</v>
+        <v>424</v>
       </c>
       <c r="D11" s="31">
-        <v>1518</v>
+        <v>7718</v>
       </c>
       <c r="E11" s="31">
-        <v>3181</v>
+        <v>639</v>
       </c>
       <c r="F11" s="31">
-        <v>3003</v>
+        <v>1468</v>
       </c>
       <c r="G11" s="31">
-        <v>3171</v>
+        <v>3550</v>
       </c>
       <c r="H11" s="31">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C12" s="31">
-        <v>3004</v>
+        <v>7605</v>
       </c>
       <c r="D12" s="31">
-        <v>1591</v>
+        <v>20</v>
       </c>
       <c r="E12" s="31">
-        <v>3173</v>
+        <v>3950</v>
       </c>
       <c r="F12" s="31">
-        <v>4930</v>
+        <v>191</v>
       </c>
       <c r="G12" s="31">
-        <v>7903</v>
+        <v>8067</v>
       </c>
       <c r="H12" s="31">
-        <v>8243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C13" s="31">
-        <v>2614</v>
+        <v>870</v>
       </c>
       <c r="D13" s="31">
-        <v>1559</v>
+        <v>6463</v>
       </c>
       <c r="E13" s="31">
-        <v>3044</v>
+        <v>10714</v>
       </c>
       <c r="F13" s="31">
-        <v>9643</v>
+        <v>3173</v>
       </c>
       <c r="G13" s="31">
-        <v>533</v>
+        <v>5149</v>
       </c>
       <c r="H13" s="31">
-        <v>3951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C14" s="31">
-        <v>424</v>
+        <v>4458</v>
       </c>
       <c r="D14" s="31">
-        <v>20</v>
+        <v>1880</v>
       </c>
       <c r="E14" s="31">
-        <v>2010</v>
+        <v>229</v>
       </c>
       <c r="F14" s="31">
-        <v>2340</v>
+        <v>3181</v>
       </c>
       <c r="G14" s="31">
-        <v>3015</v>
+        <v>7759</v>
       </c>
       <c r="H14" s="31">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C15" s="31">
-        <v>695</v>
+        <v>6300</v>
       </c>
       <c r="D15" s="31">
-        <v>229</v>
+        <v>334</v>
       </c>
       <c r="E15" s="31">
-        <v>8140</v>
+        <v>810</v>
       </c>
       <c r="F15" s="31">
-        <v>2228</v>
+        <v>4571</v>
       </c>
       <c r="G15" s="31">
-        <v>639</v>
+        <v>9468</v>
       </c>
       <c r="H15" s="31">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C16" s="31">
-        <v>10223</v>
+        <v>3003</v>
       </c>
       <c r="D16" s="31">
-        <v>8393</v>
+        <v>7031</v>
       </c>
       <c r="E16" s="31">
-        <v>191</v>
+        <v>6806</v>
       </c>
       <c r="F16" s="31">
-        <v>1308</v>
+        <v>578</v>
       </c>
       <c r="G16" s="31">
-        <v>9622</v>
+        <v>9624</v>
       </c>
       <c r="H16" s="31">
-        <v>6911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C17" s="31">
-        <v>1511</v>
+        <v>1796</v>
       </c>
       <c r="D17" s="31">
-        <v>7165</v>
+        <v>2875</v>
       </c>
       <c r="E17" s="31">
-        <v>5881</v>
+        <v>7030</v>
       </c>
       <c r="F17" s="31">
-        <v>3799</v>
+        <v>2601</v>
       </c>
       <c r="G17" s="31">
-        <v>4611</v>
+        <v>7504</v>
       </c>
       <c r="H17" s="31">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C18" s="31">
-        <v>3838</v>
+        <v>1591</v>
       </c>
       <c r="D18" s="31">
-        <v>1405</v>
+        <v>2791</v>
       </c>
       <c r="E18" s="31">
-        <v>1507</v>
+        <v>424</v>
       </c>
       <c r="F18" s="31">
-        <v>250</v>
+        <v>5528</v>
       </c>
       <c r="G18" s="31">
-        <v>2252</v>
+        <v>1126</v>
       </c>
       <c r="H18" s="31">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>18</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C19" s="31">
-        <v>6868</v>
+        <v>3171</v>
       </c>
       <c r="D19" s="31">
-        <v>1126</v>
-      </c>
-      <c r="E19" s="54">
-        <v>578</v>
+        <v>1493</v>
+      </c>
+      <c r="E19" s="31">
+        <v>3360</v>
       </c>
       <c r="F19" s="31">
-        <v>378</v>
+        <v>4122</v>
       </c>
       <c r="G19" s="31">
-        <v>5590</v>
+        <v>3117</v>
       </c>
       <c r="H19" s="31">
-        <v>2791</v>
-      </c>
-      <c r="I19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C20" s="31">
-        <v>3003</v>
+        <v>1518</v>
       </c>
       <c r="D20" s="31">
-        <v>3951</v>
+        <v>6621</v>
       </c>
       <c r="E20" s="31">
-        <v>424</v>
+        <v>8067</v>
       </c>
       <c r="F20" s="31">
-        <v>2010</v>
+        <v>229</v>
       </c>
       <c r="G20" s="31">
-        <v>271</v>
+        <v>10352</v>
       </c>
       <c r="H20" s="31">
-        <v>7903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>20</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C21" s="31">
-        <v>3015</v>
+        <v>6401</v>
       </c>
       <c r="D21" s="31">
-        <v>639</v>
+        <v>6648</v>
       </c>
       <c r="E21" s="31">
-        <v>229</v>
+        <v>870</v>
       </c>
       <c r="F21" s="31">
-        <v>1559</v>
+        <v>358</v>
       </c>
       <c r="G21" s="31">
-        <v>3171</v>
+        <v>191</v>
       </c>
       <c r="H21" s="31">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C22" s="31">
-        <v>8393</v>
+        <v>7718</v>
       </c>
       <c r="D22" s="31">
-        <v>2228</v>
+        <v>578</v>
       </c>
       <c r="E22" s="31">
-        <v>2614</v>
+        <v>6463</v>
       </c>
       <c r="F22" s="31">
-        <v>1787</v>
+        <v>6300</v>
       </c>
       <c r="G22" s="31">
-        <v>6621</v>
+        <v>3181</v>
       </c>
       <c r="H22" s="31">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="31">
         <v>22</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C23" s="31">
-        <v>1591</v>
+        <v>7759</v>
       </c>
       <c r="D23" s="31">
-        <v>9643</v>
+        <v>3044</v>
       </c>
       <c r="E23" s="31">
-        <v>9622</v>
+        <v>250</v>
       </c>
       <c r="F23" s="31">
-        <v>4611</v>
+        <v>3003</v>
       </c>
       <c r="G23" s="31">
-        <v>3181</v>
+        <v>1796</v>
       </c>
       <c r="H23" s="31">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C24" s="31">
-        <v>695</v>
+        <v>9624</v>
       </c>
       <c r="D24" s="31">
-        <v>1308</v>
+        <v>9468</v>
       </c>
       <c r="E24" s="31">
-        <v>1518</v>
+        <v>1126</v>
       </c>
       <c r="F24" s="31">
-        <v>3838</v>
+        <v>10714</v>
       </c>
       <c r="G24" s="31">
-        <v>564</v>
+        <v>2601</v>
       </c>
       <c r="H24" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="31">
         <v>24</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C25" s="31">
-        <v>5590</v>
+        <v>334</v>
       </c>
       <c r="D25" s="31">
-        <v>6911</v>
+        <v>4122</v>
       </c>
       <c r="E25" s="31">
-        <v>10223</v>
+        <v>2791</v>
       </c>
       <c r="F25" s="31">
-        <v>1405</v>
+        <v>7605</v>
       </c>
       <c r="G25" s="31">
-        <v>3004</v>
+        <v>5149</v>
       </c>
       <c r="H25" s="31">
-        <v>3044</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="31">
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C26" s="31">
-        <v>533</v>
+        <v>1591</v>
       </c>
       <c r="D26" s="31">
-        <v>8243</v>
+        <v>5528</v>
       </c>
       <c r="E26" s="31">
-        <v>2791</v>
+        <v>7504</v>
       </c>
       <c r="F26" s="31">
-        <v>7165</v>
+        <v>1493</v>
       </c>
       <c r="G26" s="31">
-        <v>378</v>
+        <v>7031</v>
       </c>
       <c r="H26" s="31">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="54">
-        <v>578</v>
+        <v>248</v>
+      </c>
+      <c r="C27" s="31">
+        <v>3360</v>
       </c>
       <c r="D27" s="31">
-        <v>4930</v>
+        <v>424</v>
       </c>
       <c r="E27" s="31">
-        <v>250</v>
+        <v>1518</v>
       </c>
       <c r="F27" s="31">
-        <v>8140</v>
+        <v>4458</v>
       </c>
       <c r="G27" s="31">
-        <v>1585</v>
+        <v>6806</v>
       </c>
       <c r="H27" s="31">
-        <v>6868</v>
-      </c>
-      <c r="I27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C28" s="31">
-        <v>5881</v>
+        <v>7030</v>
       </c>
       <c r="D28" s="31">
-        <v>1126</v>
+        <v>3173</v>
       </c>
       <c r="E28" s="31">
-        <v>3799</v>
+        <v>3117</v>
       </c>
       <c r="F28" s="31">
-        <v>1507</v>
+        <v>1880</v>
       </c>
       <c r="G28" s="31">
-        <v>340</v>
+        <v>6911</v>
       </c>
       <c r="H28" s="31">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C29" s="31">
-        <v>1559</v>
+        <v>1468</v>
       </c>
       <c r="D29" s="31">
-        <v>229</v>
+        <v>5881</v>
       </c>
       <c r="E29" s="31">
-        <v>7903</v>
+        <v>3171</v>
       </c>
       <c r="F29" s="31">
-        <v>2010</v>
+        <v>10352</v>
       </c>
       <c r="G29" s="31">
+        <v>20</v>
+      </c>
+      <c r="H29" s="31">
         <v>6621</v>
       </c>
-      <c r="H29" s="31">
-        <v>4611</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C30" s="31">
-        <v>8393</v>
+        <v>8067</v>
       </c>
       <c r="D30" s="31">
-        <v>1308</v>
+        <v>2869</v>
       </c>
       <c r="E30" s="31">
-        <v>9643</v>
+        <v>4571</v>
       </c>
       <c r="F30" s="31">
-        <v>271</v>
+        <v>9624</v>
       </c>
       <c r="G30" s="31">
-        <v>3173</v>
+        <v>7718</v>
       </c>
       <c r="H30" s="31">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="31">
         <v>30</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C31" s="31">
-        <v>2340</v>
+        <v>5149</v>
       </c>
       <c r="D31" s="31">
-        <v>2228</v>
+        <v>3181</v>
       </c>
       <c r="E31" s="31">
-        <v>3838</v>
+        <v>2601</v>
       </c>
       <c r="F31" s="31">
-        <v>3951</v>
+        <v>6401</v>
       </c>
       <c r="G31" s="31">
-        <v>1511</v>
+        <v>3003</v>
       </c>
       <c r="H31" s="31">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="31">
         <v>31</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C32" s="31">
-        <v>6911</v>
+        <v>1126</v>
       </c>
       <c r="D32" s="31">
-        <v>533</v>
+        <v>2875</v>
       </c>
       <c r="E32" s="31">
-        <v>1787</v>
+        <v>7605</v>
       </c>
       <c r="F32" s="31">
-        <v>3015</v>
+        <v>3044</v>
       </c>
       <c r="G32" s="31">
-        <v>5590</v>
+        <v>229</v>
       </c>
       <c r="H32" s="31">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="31">
         <v>32</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C33" s="31">
-        <v>3171</v>
+        <v>3360</v>
       </c>
       <c r="D33" s="31">
-        <v>8243</v>
+        <v>870</v>
       </c>
       <c r="E33" s="31">
-        <v>2252</v>
+        <v>5528</v>
       </c>
       <c r="F33" s="31">
-        <v>20</v>
+        <v>810</v>
       </c>
       <c r="G33" s="31">
-        <v>250</v>
+        <v>424</v>
       </c>
       <c r="H33" s="31">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="31">
         <v>33</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C34" s="31">
-        <v>9622</v>
+        <v>1518</v>
       </c>
       <c r="D34" s="31">
-        <v>5881</v>
+        <v>7030</v>
       </c>
       <c r="E34" s="31">
-        <v>340</v>
+        <v>2791</v>
       </c>
       <c r="F34" s="31">
-        <v>4930</v>
+        <v>7759</v>
       </c>
       <c r="G34" s="31">
-        <v>6868</v>
+        <v>334</v>
       </c>
       <c r="H34" s="31">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="31">
         <v>34</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C35" s="31">
-        <v>7165</v>
+        <v>3950</v>
       </c>
       <c r="D35" s="31">
-        <v>3003</v>
+        <v>3171</v>
       </c>
       <c r="E35" s="31">
-        <v>564</v>
+        <v>1591</v>
       </c>
       <c r="F35" s="31">
-        <v>10223</v>
+        <v>1880</v>
       </c>
       <c r="G35" s="31">
-        <v>8140</v>
+        <v>1468</v>
       </c>
       <c r="H35" s="31">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="31">
         <v>35</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C36" s="31">
-        <v>1405</v>
+        <v>6911</v>
       </c>
       <c r="D36" s="31">
-        <v>191</v>
+        <v>3550</v>
       </c>
       <c r="E36" s="31">
-        <v>695</v>
+        <v>3117</v>
       </c>
       <c r="F36" s="31">
-        <v>2614</v>
+        <v>6648</v>
       </c>
       <c r="G36" s="31">
-        <v>2791</v>
+        <v>4458</v>
       </c>
       <c r="H36" s="31">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="31">
         <v>36</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="54">
+        <v>258</v>
+      </c>
+      <c r="C37" s="31">
+        <v>10352</v>
+      </c>
+      <c r="D37" s="31">
+        <v>250</v>
+      </c>
+      <c r="E37" s="31">
+        <v>3173</v>
+      </c>
+      <c r="F37" s="31">
         <v>578</v>
       </c>
-      <c r="D37" s="31">
-        <v>3799</v>
-      </c>
-      <c r="E37" s="31">
-        <v>3181</v>
-      </c>
-      <c r="F37" s="31">
-        <v>1126</v>
-      </c>
       <c r="G37" s="31">
-        <v>3044</v>
+        <v>7504</v>
       </c>
       <c r="H37" s="31">
-        <v>424</v>
-      </c>
-      <c r="I37" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="31">
         <v>37</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C38" s="31">
+        <v>2053</v>
+      </c>
+      <c r="D38" s="31">
         <v>639</v>
       </c>
-      <c r="D38" s="31">
-        <v>9643</v>
-      </c>
       <c r="E38" s="31">
-        <v>2340</v>
+        <v>9468</v>
       </c>
       <c r="F38" s="31">
-        <v>1518</v>
+        <v>6806</v>
       </c>
       <c r="G38" s="31">
-        <v>7903</v>
+        <v>1493</v>
       </c>
       <c r="H38" s="31">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="31">
         <v>38</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C39" s="31">
-        <v>2010</v>
+        <v>1796</v>
       </c>
       <c r="D39" s="31">
-        <v>2228</v>
+        <v>358</v>
       </c>
       <c r="E39" s="31">
-        <v>3951</v>
+        <v>4122</v>
       </c>
       <c r="F39" s="31">
-        <v>250</v>
+        <v>6463</v>
       </c>
       <c r="G39" s="31">
-        <v>4611</v>
+        <v>5881</v>
       </c>
       <c r="H39" s="31">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="31">
         <v>39</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C40" s="31">
-        <v>6621</v>
+        <v>6401</v>
       </c>
       <c r="D40" s="31">
-        <v>1559</v>
+        <v>3360</v>
       </c>
       <c r="E40" s="31">
-        <v>8243</v>
+        <v>7031</v>
       </c>
       <c r="F40" s="31">
-        <v>4930</v>
+        <v>229</v>
       </c>
       <c r="G40" s="31">
-        <v>5590</v>
+        <v>7718</v>
       </c>
       <c r="H40" s="31">
-        <v>5881</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="31">
         <v>40</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C41" s="31">
-        <v>1787</v>
+        <v>3044</v>
       </c>
       <c r="D41" s="31">
-        <v>378</v>
+        <v>1468</v>
       </c>
       <c r="E41" s="31">
-        <v>271</v>
+        <v>8067</v>
       </c>
       <c r="F41" s="31">
-        <v>2252</v>
+        <v>5149</v>
       </c>
       <c r="G41" s="31">
-        <v>564</v>
+        <v>7030</v>
       </c>
       <c r="H41" s="31">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="31">
         <v>41</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C42" s="31">
-        <v>1507</v>
+        <v>10714</v>
       </c>
       <c r="D42" s="31">
-        <v>8140</v>
+        <v>2869</v>
       </c>
       <c r="E42" s="31">
-        <v>3004</v>
+        <v>3171</v>
       </c>
       <c r="F42" s="31">
+        <v>3550</v>
+      </c>
+      <c r="G42" s="31">
+        <v>6300</v>
+      </c>
+      <c r="H42" s="31">
         <v>2791</v>
       </c>
-      <c r="G42" s="31">
-        <v>8393</v>
-      </c>
-      <c r="H42" s="31">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="31">
         <v>42</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C43" s="31">
-        <v>6911</v>
+        <v>3950</v>
       </c>
       <c r="D43" s="31">
         <v>3181</v>
       </c>
       <c r="E43" s="31">
-        <v>229</v>
-      </c>
-      <c r="F43" s="54">
-        <v>578</v>
+        <v>3117</v>
+      </c>
+      <c r="F43" s="31">
+        <v>6621</v>
       </c>
       <c r="G43" s="31">
-        <v>340</v>
+        <v>1591</v>
       </c>
       <c r="H43" s="31">
-        <v>3838</v>
-      </c>
-      <c r="I43" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="31">
         <v>43</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C44" s="31">
-        <v>3171</v>
+        <v>10352</v>
       </c>
       <c r="D44" s="31">
-        <v>424</v>
+        <v>2601</v>
       </c>
       <c r="E44" s="31">
-        <v>3799</v>
+        <v>6648</v>
       </c>
       <c r="F44" s="31">
-        <v>2614</v>
+        <v>4458</v>
       </c>
       <c r="G44" s="31">
-        <v>10223</v>
+        <v>2053</v>
       </c>
       <c r="H44" s="31">
-        <v>9622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>7759</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="31">
         <v>44</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C45" s="31">
-        <v>1585</v>
+        <v>1518</v>
       </c>
       <c r="D45" s="31">
-        <v>3044</v>
+        <v>20</v>
       </c>
       <c r="E45" s="31">
-        <v>1511</v>
+        <v>6911</v>
       </c>
       <c r="F45" s="31">
-        <v>3173</v>
+        <v>9468</v>
       </c>
       <c r="G45" s="31">
-        <v>6868</v>
+        <v>578</v>
       </c>
       <c r="H45" s="31">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="31">
         <v>45</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C46" s="31">
+        <v>5881</v>
+      </c>
+      <c r="D46" s="31">
+        <v>9624</v>
+      </c>
+      <c r="E46" s="31">
+        <v>1493</v>
+      </c>
+      <c r="F46" s="31">
+        <v>810</v>
+      </c>
+      <c r="G46" s="31">
+        <v>3173</v>
+      </c>
+      <c r="H46" s="31">
         <v>191</v>
       </c>
-      <c r="D46" s="31">
-        <v>1126</v>
-      </c>
-      <c r="E46" s="31">
-        <v>7165</v>
-      </c>
-      <c r="F46" s="31">
-        <v>20</v>
-      </c>
-      <c r="G46" s="31">
-        <v>1405</v>
-      </c>
-      <c r="H46" s="31">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="31">
         <v>46</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C47" s="31">
-        <v>5590</v>
+        <v>7605</v>
       </c>
       <c r="D47" s="31">
-        <v>1559</v>
+        <v>7504</v>
       </c>
       <c r="E47" s="31">
-        <v>4611</v>
+        <v>1880</v>
       </c>
       <c r="F47" s="31">
-        <v>271</v>
+        <v>3003</v>
       </c>
       <c r="G47" s="31">
-        <v>2252</v>
+        <v>4571</v>
       </c>
       <c r="H47" s="31">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="31">
         <v>47</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C48" s="31">
-        <v>3015</v>
+        <v>6806</v>
       </c>
       <c r="D48" s="31">
-        <v>3951</v>
+        <v>250</v>
       </c>
       <c r="E48" s="31">
-        <v>4930</v>
+        <v>358</v>
       </c>
       <c r="F48" s="31">
-        <v>2791</v>
+        <v>1126</v>
       </c>
       <c r="G48" s="31">
-        <v>1308</v>
+        <v>4122</v>
       </c>
       <c r="H48" s="31">
-        <v>6621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="31">
         <v>48</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C49" s="31">
-        <v>7903</v>
+        <v>2869</v>
       </c>
       <c r="D49" s="31">
+        <v>3044</v>
+      </c>
+      <c r="E49" s="31">
         <v>3181</v>
       </c>
-      <c r="E49" s="31">
-        <v>250</v>
-      </c>
       <c r="F49" s="31">
-        <v>564</v>
+        <v>10714</v>
       </c>
       <c r="G49" s="31">
-        <v>6911</v>
+        <v>424</v>
       </c>
       <c r="H49" s="31">
-        <v>8393</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="31">
         <v>49</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C50" s="31">
-        <v>5881</v>
-      </c>
-      <c r="D50" s="54">
-        <v>578</v>
+        <v>6621</v>
+      </c>
+      <c r="D50" s="31">
+        <v>6300</v>
       </c>
       <c r="E50" s="31">
-        <v>2614</v>
+        <v>6648</v>
       </c>
       <c r="F50" s="31">
-        <v>9622</v>
+        <v>2791</v>
       </c>
       <c r="G50" s="31">
-        <v>3838</v>
+        <v>1796</v>
       </c>
       <c r="H50" s="31">
-        <v>1518</v>
-      </c>
-      <c r="I50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="31">
         <v>50</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C51" s="31">
-        <v>3799</v>
+        <v>578</v>
       </c>
       <c r="D51" s="31">
-        <v>340</v>
+        <v>1591</v>
       </c>
       <c r="E51" s="31">
-        <v>1591</v>
+        <v>4458</v>
       </c>
       <c r="F51" s="31">
-        <v>424</v>
+        <v>2053</v>
       </c>
       <c r="G51" s="31">
-        <v>695</v>
+        <v>8067</v>
       </c>
       <c r="H51" s="31">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="31">
         <v>51</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C52" s="31">
-        <v>3003</v>
+        <v>1493</v>
       </c>
       <c r="D52" s="31">
-        <v>6868</v>
+        <v>810</v>
       </c>
       <c r="E52" s="31">
-        <v>10223</v>
+        <v>7718</v>
       </c>
       <c r="F52" s="31">
-        <v>8243</v>
+        <v>6911</v>
       </c>
       <c r="G52" s="31">
-        <v>1787</v>
+        <v>3950</v>
       </c>
       <c r="H52" s="31">
-        <v>9643</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>7759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="31">
         <v>52</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C53" s="31">
-        <v>3004</v>
+        <v>5528</v>
       </c>
       <c r="D53" s="31">
-        <v>1585</v>
+        <v>3171</v>
       </c>
       <c r="E53" s="31">
-        <v>7165</v>
+        <v>4571</v>
       </c>
       <c r="F53" s="31">
-        <v>191</v>
+        <v>3173</v>
       </c>
       <c r="G53" s="31">
-        <v>1511</v>
+        <v>229</v>
       </c>
       <c r="H53" s="31">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="31">
         <v>53</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C54" s="31">
-        <v>3173</v>
+        <v>250</v>
       </c>
       <c r="D54" s="31">
-        <v>2010</v>
+        <v>1126</v>
       </c>
       <c r="E54" s="31">
-        <v>8140</v>
+        <v>191</v>
       </c>
       <c r="F54" s="31">
-        <v>1126</v>
+        <v>639</v>
       </c>
       <c r="G54" s="31">
-        <v>1405</v>
+        <v>2875</v>
       </c>
       <c r="H54" s="31">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="31">
         <v>54</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C55" s="31">
-        <v>3044</v>
+        <v>5149</v>
       </c>
       <c r="D55" s="31">
-        <v>378</v>
+        <v>6463</v>
       </c>
       <c r="E55" s="31">
-        <v>20</v>
+        <v>10352</v>
       </c>
       <c r="F55" s="31">
-        <v>229</v>
+        <v>6806</v>
       </c>
       <c r="G55" s="31">
-        <v>1507</v>
+        <v>3117</v>
       </c>
       <c r="H55" s="31">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="31">
         <v>55</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C56" s="31">
-        <v>7903</v>
+        <v>7504</v>
       </c>
       <c r="D56" s="31">
-        <v>3951</v>
+        <v>4122</v>
       </c>
       <c r="E56" s="31">
-        <v>1308</v>
+        <v>7030</v>
       </c>
       <c r="F56" s="31">
-        <v>3181</v>
+        <v>20</v>
       </c>
       <c r="G56" s="31">
-        <v>2252</v>
+        <v>6401</v>
       </c>
       <c r="H56" s="31">
-        <v>5590</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>9624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="31">
         <v>56</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C57" s="31">
-        <v>424</v>
+        <v>1880</v>
       </c>
       <c r="D57" s="31">
-        <v>1591</v>
+        <v>870</v>
       </c>
       <c r="E57" s="31">
-        <v>2791</v>
+        <v>3550</v>
       </c>
       <c r="F57" s="31">
-        <v>1559</v>
+        <v>2601</v>
       </c>
       <c r="G57" s="31">
-        <v>3838</v>
+        <v>7605</v>
       </c>
       <c r="H57" s="31">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="31">
         <v>57</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C58" s="31">
-        <v>533</v>
+        <v>1493</v>
       </c>
       <c r="D58" s="31">
-        <v>250</v>
+        <v>6911</v>
       </c>
       <c r="E58" s="31">
-        <v>3015</v>
+        <v>1796</v>
       </c>
       <c r="F58" s="31">
-        <v>695</v>
+        <v>8067</v>
       </c>
       <c r="G58" s="31">
-        <v>10223</v>
+        <v>358</v>
       </c>
       <c r="H58" s="31">
-        <v>5881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="31">
         <v>58</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C59" s="31">
-        <v>4611</v>
+        <v>2791</v>
       </c>
       <c r="D59" s="31">
-        <v>3003</v>
+        <v>2053</v>
       </c>
       <c r="E59" s="31">
-        <v>2614</v>
+        <v>578</v>
       </c>
       <c r="F59" s="31">
-        <v>340</v>
+        <v>3044</v>
       </c>
       <c r="G59" s="31">
-        <v>3004</v>
+        <v>3950</v>
       </c>
       <c r="H59" s="31">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="31">
         <v>59</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C60" s="31">
-        <v>1787</v>
+        <v>2869</v>
       </c>
       <c r="D60" s="31">
-        <v>3171</v>
+        <v>810</v>
       </c>
       <c r="E60" s="31">
-        <v>8393</v>
+        <v>1468</v>
       </c>
       <c r="F60" s="31">
-        <v>1511</v>
-      </c>
-      <c r="G60" s="54">
-        <v>578</v>
+        <v>3181</v>
+      </c>
+      <c r="G60" s="31">
+        <v>191</v>
       </c>
       <c r="H60" s="31">
-        <v>1405</v>
-      </c>
-      <c r="I60" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="31">
         <v>60</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C61" s="31">
-        <v>8140</v>
+        <v>1126</v>
       </c>
       <c r="D61" s="31">
-        <v>191</v>
+        <v>10352</v>
       </c>
       <c r="E61" s="31">
-        <v>6621</v>
+        <v>4458</v>
       </c>
       <c r="F61" s="31">
-        <v>378</v>
+        <v>7031</v>
       </c>
       <c r="G61" s="31">
-        <v>9643</v>
+        <v>4571</v>
       </c>
       <c r="H61" s="31">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="31">
         <v>61</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C62" s="31">
-        <v>6868</v>
+        <v>424</v>
       </c>
       <c r="D62" s="31">
-        <v>271</v>
+        <v>3003</v>
       </c>
       <c r="E62" s="31">
-        <v>6911</v>
+        <v>7504</v>
       </c>
       <c r="F62" s="31">
-        <v>1507</v>
+        <v>7030</v>
       </c>
       <c r="G62" s="31">
-        <v>7165</v>
+        <v>6648</v>
       </c>
       <c r="H62" s="31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="31">
         <v>62</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C63" s="31">
-        <v>1518</v>
+        <v>7759</v>
       </c>
       <c r="D63" s="31">
-        <v>2010</v>
+        <v>1591</v>
       </c>
       <c r="E63" s="31">
-        <v>564</v>
+        <v>7605</v>
       </c>
       <c r="F63" s="31">
-        <v>3044</v>
+        <v>3171</v>
       </c>
       <c r="G63" s="31">
-        <v>4930</v>
+        <v>9468</v>
       </c>
       <c r="H63" s="31">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="31">
         <v>63</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C64" s="31">
-        <v>8243</v>
+        <v>5881</v>
       </c>
       <c r="D64" s="31">
-        <v>2340</v>
+        <v>5528</v>
       </c>
       <c r="E64" s="31">
-        <v>229</v>
+        <v>6300</v>
       </c>
       <c r="F64" s="31">
-        <v>1585</v>
+        <v>3117</v>
       </c>
       <c r="G64" s="31">
-        <v>9622</v>
+        <v>639</v>
       </c>
       <c r="H64" s="31">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="31">
         <v>64</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C65" s="31">
-        <v>7903</v>
+        <v>2875</v>
       </c>
       <c r="D65" s="31">
-        <v>10223</v>
+        <v>6621</v>
       </c>
       <c r="E65" s="31">
-        <v>3004</v>
+        <v>7718</v>
       </c>
       <c r="F65" s="31">
-        <v>340</v>
+        <v>4122</v>
       </c>
       <c r="G65" s="31">
-        <v>695</v>
+        <v>6806</v>
       </c>
       <c r="H65" s="31">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="31">
         <v>65</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C66" s="31">
-        <v>639</v>
+        <v>334</v>
       </c>
       <c r="D66" s="31">
-        <v>2791</v>
+        <v>3173</v>
       </c>
       <c r="E66" s="31">
-        <v>250</v>
+        <v>6463</v>
       </c>
       <c r="F66" s="31">
-        <v>5590</v>
+        <v>3550</v>
       </c>
       <c r="G66" s="31">
-        <v>424</v>
+        <v>2601</v>
       </c>
       <c r="H66" s="31">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="31">
         <v>66</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C67" s="31">
-        <v>3173</v>
+        <v>2791</v>
       </c>
       <c r="D67" s="31">
-        <v>3015</v>
+        <v>3044</v>
       </c>
       <c r="E67" s="31">
-        <v>4611</v>
+        <v>9624</v>
       </c>
       <c r="F67" s="31">
-        <v>3181</v>
+        <v>870</v>
       </c>
       <c r="G67" s="31">
-        <v>2614</v>
+        <v>4458</v>
       </c>
       <c r="H67" s="31">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="31">
         <v>67</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C68" s="31">
-        <v>5881</v>
+        <v>4571</v>
       </c>
       <c r="D68" s="31">
-        <v>20</v>
+        <v>10714</v>
       </c>
       <c r="E68" s="31">
-        <v>9643</v>
+        <v>578</v>
       </c>
       <c r="F68" s="31">
-        <v>3951</v>
+        <v>191</v>
       </c>
       <c r="G68" s="31">
-        <v>1787</v>
-      </c>
-      <c r="H68" s="54">
-        <v>578</v>
-      </c>
-      <c r="I68" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>7030</v>
+      </c>
+      <c r="H68" s="31">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="31">
         <v>68</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C69" s="31">
-        <v>6911</v>
+        <v>3181</v>
       </c>
       <c r="D69" s="31">
+        <v>2053</v>
+      </c>
+      <c r="E69" s="31">
+        <v>1796</v>
+      </c>
+      <c r="F69" s="31">
+        <v>3171</v>
+      </c>
+      <c r="G69" s="31">
         <v>1518</v>
       </c>
-      <c r="E69" s="31">
-        <v>1507</v>
-      </c>
-      <c r="F69" s="31">
-        <v>1591</v>
-      </c>
-      <c r="G69" s="31">
-        <v>2010</v>
-      </c>
       <c r="H69" s="31">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="31">
         <v>69</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C70" s="31">
-        <v>2252</v>
+        <v>424</v>
       </c>
       <c r="D70" s="31">
-        <v>8393</v>
+        <v>6401</v>
       </c>
       <c r="E70" s="31">
-        <v>4930</v>
+        <v>1126</v>
       </c>
       <c r="F70" s="31">
-        <v>1126</v>
+        <v>3117</v>
       </c>
       <c r="G70" s="31">
-        <v>229</v>
+        <v>810</v>
       </c>
       <c r="H70" s="31">
         <v>3003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="31">
         <v>70</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C71" s="31">
-        <v>271</v>
+        <v>7718</v>
       </c>
       <c r="D71" s="31">
-        <v>1585</v>
+        <v>5528</v>
       </c>
       <c r="E71" s="31">
-        <v>2228</v>
+        <v>6806</v>
       </c>
       <c r="F71" s="31">
-        <v>533</v>
+        <v>9468</v>
       </c>
       <c r="G71" s="31">
-        <v>3799</v>
+        <v>6648</v>
       </c>
       <c r="H71" s="31">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="31">
         <v>71</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C72" s="31">
-        <v>564</v>
+        <v>358</v>
       </c>
       <c r="D72" s="31">
-        <v>2340</v>
+        <v>6300</v>
       </c>
       <c r="E72" s="31">
-        <v>3171</v>
+        <v>2601</v>
       </c>
       <c r="F72" s="31">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="G72" s="31">
-        <v>8243</v>
+        <v>7031</v>
       </c>
       <c r="H72" s="31">
-        <v>6868</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="31">
         <v>72</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C73" s="31">
-        <v>6621</v>
+        <v>639</v>
       </c>
       <c r="D73" s="31">
-        <v>3838</v>
+        <v>7759</v>
       </c>
       <c r="E73" s="31">
-        <v>3044</v>
+        <v>3173</v>
       </c>
       <c r="F73" s="31">
-        <v>7165</v>
+        <v>8067</v>
       </c>
       <c r="G73" s="31">
-        <v>9622</v>
+        <v>3360</v>
       </c>
       <c r="H73" s="31">
-        <v>8140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="31">
         <v>73</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C74" s="31">
-        <v>1511</v>
+        <v>2869</v>
       </c>
       <c r="D74" s="31">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E74" s="31">
-        <v>378</v>
+        <v>870</v>
       </c>
       <c r="F74" s="31">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="G74" s="31">
-        <v>2614</v>
+        <v>1880</v>
       </c>
       <c r="H74" s="31">
-        <v>7903</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>10352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="31">
         <v>74</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C75" s="31">
-        <v>340</v>
+        <v>3550</v>
       </c>
       <c r="D75" s="31">
-        <v>3173</v>
+        <v>5149</v>
       </c>
       <c r="E75" s="31">
-        <v>10223</v>
+        <v>5881</v>
       </c>
       <c r="F75" s="31">
-        <v>1518</v>
+        <v>250</v>
       </c>
       <c r="G75" s="31">
-        <v>2791</v>
+        <v>3950</v>
       </c>
       <c r="H75" s="31">
-        <v>3951</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="31">
         <v>75</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C76" s="31">
-        <v>1308</v>
+        <v>6911</v>
       </c>
       <c r="D76" s="31">
-        <v>3004</v>
+        <v>6401</v>
       </c>
       <c r="E76" s="31">
-        <v>424</v>
+        <v>6621</v>
       </c>
       <c r="F76" s="31">
-        <v>229</v>
+        <v>9624</v>
       </c>
       <c r="G76" s="31">
-        <v>5881</v>
+        <v>6463</v>
       </c>
       <c r="H76" s="31">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="31">
         <v>76</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C77" s="31">
-        <v>1585</v>
+        <v>3117</v>
       </c>
       <c r="D77" s="31">
-        <v>1507</v>
+        <v>10714</v>
       </c>
       <c r="E77" s="31">
-        <v>1559</v>
+        <v>3044</v>
       </c>
       <c r="F77" s="31">
-        <v>2228</v>
+        <v>7504</v>
       </c>
       <c r="G77" s="31">
-        <v>3003</v>
+        <v>1518</v>
       </c>
       <c r="H77" s="31">
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>6806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="31">
         <v>77</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C78" s="31">
-        <v>4611</v>
+        <v>7031</v>
       </c>
       <c r="D78" s="31">
-        <v>533</v>
+        <v>1468</v>
       </c>
       <c r="E78" s="31">
-        <v>191</v>
+        <v>6300</v>
       </c>
       <c r="F78" s="31">
-        <v>8393</v>
-      </c>
-      <c r="G78" s="54">
-        <v>578</v>
+        <v>6648</v>
+      </c>
+      <c r="G78" s="31">
+        <v>7605</v>
       </c>
       <c r="H78" s="31">
-        <v>8243</v>
-      </c>
-      <c r="I78" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="31">
         <v>78</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C79" s="31">
-        <v>2252</v>
+        <v>810</v>
       </c>
       <c r="D79" s="31">
-        <v>6621</v>
+        <v>358</v>
       </c>
       <c r="E79" s="31">
-        <v>1405</v>
+        <v>4458</v>
       </c>
       <c r="F79" s="31">
-        <v>639</v>
+        <v>7030</v>
       </c>
       <c r="G79" s="31">
-        <v>1591</v>
+        <v>3171</v>
       </c>
       <c r="H79" s="31">
-        <v>6868</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="31">
         <v>79</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C80" s="31">
-        <v>9622</v>
+        <v>191</v>
       </c>
       <c r="D80" s="31">
-        <v>695</v>
+        <v>7759</v>
       </c>
       <c r="E80" s="31">
-        <v>5590</v>
+        <v>1880</v>
       </c>
       <c r="F80" s="31">
-        <v>9643</v>
+        <v>5528</v>
       </c>
       <c r="G80" s="31">
-        <v>7165</v>
+        <v>334</v>
       </c>
       <c r="H80" s="31">
-        <v>2010</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37957,25 +38002,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C81" s="31">
-        <v>3171</v>
+        <v>9468</v>
       </c>
       <c r="D81" s="31">
-        <v>8140</v>
+        <v>3550</v>
       </c>
       <c r="E81" s="31">
-        <v>4930</v>
+        <v>4122</v>
       </c>
       <c r="F81" s="31">
-        <v>3799</v>
+        <v>870</v>
       </c>
       <c r="G81" s="31">
-        <v>2340</v>
+        <v>4571</v>
       </c>
       <c r="H81" s="31">
-        <v>6911</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -37983,25 +38028,103 @@
         <v>81</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C82" s="31">
-        <v>3838</v>
+        <v>3950</v>
       </c>
       <c r="D82" s="31">
-        <v>3015</v>
+        <v>639</v>
       </c>
       <c r="E82" s="31">
+        <v>229</v>
+      </c>
+      <c r="F82" s="31">
+        <v>1796</v>
+      </c>
+      <c r="G82" s="31">
+        <v>9624</v>
+      </c>
+      <c r="H82" s="31">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="31">
+        <v>82</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="31">
+        <v>2875</v>
+      </c>
+      <c r="D83" s="31">
+        <v>2791</v>
+      </c>
+      <c r="E83" s="31">
+        <v>3173</v>
+      </c>
+      <c r="F83" s="31">
+        <v>7718</v>
+      </c>
+      <c r="G83" s="31">
+        <v>10352</v>
+      </c>
+      <c r="H83" s="31">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="31">
+        <v>83</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="31">
+        <v>20</v>
+      </c>
+      <c r="D84" s="31">
         <v>1126</v>
       </c>
-      <c r="F82" s="31">
-        <v>564</v>
-      </c>
-      <c r="G82" s="31">
-        <v>3044</v>
-      </c>
-      <c r="H82" s="31">
-        <v>271</v>
+      <c r="E84" s="31">
+        <v>5149</v>
+      </c>
+      <c r="F84" s="31">
+        <v>6621</v>
+      </c>
+      <c r="G84" s="31">
+        <v>3360</v>
+      </c>
+      <c r="H84" s="31">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="31">
+        <v>84</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="31">
+        <v>250</v>
+      </c>
+      <c r="D85" s="31">
+        <v>5881</v>
+      </c>
+      <c r="E85" s="31">
+        <v>3003</v>
+      </c>
+      <c r="F85" s="31">
+        <v>6463</v>
+      </c>
+      <c r="G85" s="31">
+        <v>6911</v>
+      </c>
+      <c r="H85" s="31">
+        <v>8067</v>
       </c>
     </row>
   </sheetData>
@@ -38044,7 +38167,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -38062,7 +38185,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="39" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
@@ -38079,7 +38202,7 @@
       <c r="P1" s="40"/>
       <c r="Q1" s="41"/>
       <c r="R1" s="42" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="S1" s="40"/>
       <c r="T1" s="40"/>
@@ -38095,7 +38218,7 @@
       <c r="AD1" s="40"/>
       <c r="AE1" s="41"/>
       <c r="AF1" s="43" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AG1" s="40"/>
       <c r="AH1" s="40"/>
@@ -38105,7 +38228,7 @@
       <c r="AL1" s="40"/>
       <c r="AM1" s="41"/>
       <c r="AN1" s="44" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AO1" s="45"/>
     </row>
@@ -38113,7 +38236,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="39" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -38121,7 +38244,7 @@
       <c r="G2" s="40"/>
       <c r="H2" s="41"/>
       <c r="I2" s="39" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
@@ -38132,7 +38255,7 @@
       <c r="P2" s="40"/>
       <c r="Q2" s="41"/>
       <c r="R2" s="42" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="S2" s="40"/>
       <c r="T2" s="40"/>
@@ -38140,7 +38263,7 @@
       <c r="V2" s="40"/>
       <c r="W2" s="41"/>
       <c r="X2" s="42" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="Y2" s="40"/>
       <c r="Z2" s="40"/>
@@ -38150,12 +38273,12 @@
       <c r="AD2" s="40"/>
       <c r="AE2" s="41"/>
       <c r="AF2" s="43" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AG2" s="40"/>
       <c r="AH2" s="41"/>
       <c r="AI2" s="43" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AJ2" s="40"/>
       <c r="AK2" s="40"/>
@@ -38169,124 +38292,124 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF3" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="AG3" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH3" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AM3" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN3" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="AJ3" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="AK3" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="AO3" s="11" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="16" x14ac:dyDescent="0.2">
@@ -38951,7 +39074,7 @@
     </row>
     <row r="8" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="B8" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A8)</f>
@@ -39116,7 +39239,7 @@
     </row>
     <row r="9" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B9" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A9)</f>
@@ -39281,7 +39404,7 @@
     </row>
     <row r="10" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="B10" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A10)</f>
@@ -39446,7 +39569,7 @@
     </row>
     <row r="11" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="B11" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A11)</f>
@@ -39611,7 +39734,7 @@
     </row>
     <row r="12" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="B12" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A12)</f>
@@ -39776,7 +39899,7 @@
     </row>
     <row r="13" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
-        <v>564</v>
+        <v>810</v>
       </c>
       <c r="B13" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A13)</f>
@@ -39941,7 +40064,7 @@
     </row>
     <row r="14" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
-        <v>578</v>
+        <v>870</v>
       </c>
       <c r="B14" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A14)</f>
@@ -40106,7 +40229,7 @@
     </row>
     <row r="15" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
-        <v>639</v>
+        <v>1126</v>
       </c>
       <c r="B15" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A15)</f>
@@ -40271,7 +40394,7 @@
     </row>
     <row r="16" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
-        <v>695</v>
+        <v>1468</v>
       </c>
       <c r="B16" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A16)</f>
@@ -40436,7 +40559,7 @@
     </row>
     <row r="17" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
-        <v>1126</v>
+        <v>1493</v>
       </c>
       <c r="B17" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A17)</f>
@@ -40601,7 +40724,7 @@
     </row>
     <row r="18" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
-        <v>1308</v>
+        <v>1518</v>
       </c>
       <c r="B18" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A18)</f>
@@ -40766,7 +40889,7 @@
     </row>
     <row r="19" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
-        <v>1405</v>
+        <v>1591</v>
       </c>
       <c r="B19" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A19)</f>
@@ -40931,7 +41054,7 @@
     </row>
     <row r="20" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
-        <v>1507</v>
+        <v>1796</v>
       </c>
       <c r="B20" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A20)</f>
@@ -41096,7 +41219,7 @@
     </row>
     <row r="21" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="32">
-        <v>1511</v>
+        <v>1880</v>
       </c>
       <c r="B21" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A21)</f>
@@ -41261,7 +41384,7 @@
     </row>
     <row r="22" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
-        <v>1518</v>
+        <v>2053</v>
       </c>
       <c r="B22" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A22)</f>
@@ -41426,7 +41549,7 @@
     </row>
     <row r="23" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="32">
-        <v>1559</v>
+        <v>2601</v>
       </c>
       <c r="B23" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A23)</f>
@@ -41591,7 +41714,7 @@
     </row>
     <row r="24" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
-        <v>1585</v>
+        <v>2791</v>
       </c>
       <c r="B24" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A24)</f>
@@ -41756,7 +41879,7 @@
     </row>
     <row r="25" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="32">
-        <v>1591</v>
+        <v>2869</v>
       </c>
       <c r="B25" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A25)</f>
@@ -41921,7 +42044,7 @@
     </row>
     <row r="26" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
-        <v>1787</v>
+        <v>2875</v>
       </c>
       <c r="B26" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A26)</f>
@@ -42086,7 +42209,7 @@
     </row>
     <row r="27" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="32">
-        <v>2010</v>
+        <v>3003</v>
       </c>
       <c r="B27" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A27)</f>
@@ -42251,7 +42374,7 @@
     </row>
     <row r="28" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
-        <v>2228</v>
+        <v>3044</v>
       </c>
       <c r="B28" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A28)</f>
@@ -42416,7 +42539,7 @@
     </row>
     <row r="29" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
-        <v>2252</v>
+        <v>3117</v>
       </c>
       <c r="B29" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A29)</f>
@@ -42581,7 +42704,7 @@
     </row>
     <row r="30" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="32">
-        <v>2340</v>
+        <v>3171</v>
       </c>
       <c r="B30" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A30)</f>
@@ -42746,7 +42869,7 @@
     </row>
     <row r="31" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="32">
-        <v>2614</v>
+        <v>3173</v>
       </c>
       <c r="B31" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A31)</f>
@@ -42911,7 +43034,7 @@
     </row>
     <row r="32" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="32">
-        <v>2791</v>
+        <v>3181</v>
       </c>
       <c r="B32" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A32)</f>
@@ -43076,7 +43199,7 @@
     </row>
     <row r="33" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32">
-        <v>3003</v>
+        <v>3360</v>
       </c>
       <c r="B33" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A33)</f>
@@ -43241,7 +43364,7 @@
     </row>
     <row r="34" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
-        <v>3004</v>
+        <v>3550</v>
       </c>
       <c r="B34" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A34)</f>
@@ -43406,7 +43529,7 @@
     </row>
     <row r="35" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="32">
-        <v>3015</v>
+        <v>3950</v>
       </c>
       <c r="B35" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A35)</f>
@@ -43571,7 +43694,7 @@
     </row>
     <row r="36" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="32">
-        <v>3044</v>
+        <v>4122</v>
       </c>
       <c r="B36" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A36)</f>
@@ -43602,27 +43725,27 @@
         <v>0</v>
       </c>
       <c r="I36" s="33">
-        <f t="shared" ref="I36:I57" si="23">C36 * 3</f>
+        <f t="shared" ref="I36:I60" si="23">C36 * 3</f>
         <v>0</v>
       </c>
       <c r="J36" s="33">
-        <f t="shared" ref="J36:J57" si="24">D36 * 4</f>
+        <f t="shared" ref="J36:J60" si="24">D36 * 4</f>
         <v>0</v>
       </c>
       <c r="K36" s="33">
-        <f t="shared" ref="K36:K57" si="25">E36 * 6</f>
+        <f t="shared" ref="K36:K60" si="25">E36 * 6</f>
         <v>0</v>
       </c>
       <c r="L36" s="33">
-        <f t="shared" ref="L36:L57" si="26">F36 * 7</f>
+        <f t="shared" ref="L36:L60" si="26">F36 * 7</f>
         <v>0</v>
       </c>
       <c r="M36" s="33">
-        <f t="shared" ref="M36:M57" si="27">G36 * 6</f>
+        <f t="shared" ref="M36:M60" si="27">G36 * 6</f>
         <v>0</v>
       </c>
       <c r="N36" s="33">
-        <f t="shared" ref="N36:N57" si="28">H36 * 4</f>
+        <f t="shared" ref="N36:N60" si="28">H36 * 4</f>
         <v>0</v>
       </c>
       <c r="O36" s="33">
@@ -43662,27 +43785,27 @@
         <v>0</v>
       </c>
       <c r="X36" s="33">
-        <f t="shared" ref="X36:X57" si="31">R36 * 2</f>
+        <f t="shared" ref="X36:X60" si="31">R36 * 2</f>
         <v>0</v>
       </c>
       <c r="Y36" s="33">
-        <f t="shared" ref="Y36:Y57" si="32">S36 * 3</f>
+        <f t="shared" ref="Y36:Y60" si="32">S36 * 3</f>
         <v>0</v>
       </c>
       <c r="Z36" s="33">
-        <f t="shared" ref="Z36:Z57" si="33">T36 * 4</f>
+        <f t="shared" ref="Z36:Z60" si="33">T36 * 4</f>
         <v>0</v>
       </c>
       <c r="AA36" s="33">
-        <f t="shared" ref="AA36:AA57" si="34">U36 * 5</f>
+        <f t="shared" ref="AA36:AA60" si="34">U36 * 5</f>
         <v>0</v>
       </c>
       <c r="AB36" s="33">
-        <f t="shared" ref="AB36:AB57" si="35">V36 * 6</f>
+        <f t="shared" ref="AB36:AB60" si="35">V36 * 6</f>
         <v>0</v>
       </c>
       <c r="AC36" s="33">
-        <f t="shared" ref="AC36:AC57" si="36">W36 * 4</f>
+        <f t="shared" ref="AC36:AC60" si="36">W36 * 4</f>
         <v>0</v>
       </c>
       <c r="AD36" s="35">
@@ -43706,15 +43829,15 @@
         <v>0</v>
       </c>
       <c r="AI36" s="33">
-        <f t="shared" ref="AI36:AI57" si="39">AF36 * 2</f>
+        <f t="shared" ref="AI36:AI60" si="39">AF36 * 2</f>
         <v>0</v>
       </c>
       <c r="AJ36" s="33">
-        <f t="shared" ref="AJ36:AJ57" si="40">AG36 * 6</f>
+        <f t="shared" ref="AJ36:AJ60" si="40">AG36 * 6</f>
         <v>0</v>
       </c>
       <c r="AK36" s="33">
-        <f t="shared" ref="AK36:AK57" si="41">AH36 * 12</f>
+        <f t="shared" ref="AK36:AK60" si="41">AH36 * 12</f>
         <v>0</v>
       </c>
       <c r="AL36" s="36">
@@ -43726,7 +43849,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="37">
-        <f t="shared" ref="AN36:AN57" si="44">SUM(P36, AD36, AL36)</f>
+        <f t="shared" ref="AN36:AN60" si="44">SUM(P36, AD36, AL36)</f>
         <v>0</v>
       </c>
       <c r="AO36" s="37">
@@ -43736,7 +43859,7 @@
     </row>
     <row r="37" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="32">
-        <v>3171</v>
+        <v>4458</v>
       </c>
       <c r="B37" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A37)</f>
@@ -43901,7 +44024,7 @@
     </row>
     <row r="38" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="32">
-        <v>3173</v>
+        <v>4571</v>
       </c>
       <c r="B38" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A38)</f>
@@ -44066,7 +44189,7 @@
     </row>
     <row r="39" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="32">
-        <v>3181</v>
+        <v>5149</v>
       </c>
       <c r="B39" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A39)</f>
@@ -44231,7 +44354,7 @@
     </row>
     <row r="40" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="32">
-        <v>3799</v>
+        <v>5528</v>
       </c>
       <c r="B40" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A40)</f>
@@ -44396,7 +44519,7 @@
     </row>
     <row r="41" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="32">
-        <v>3838</v>
+        <v>5881</v>
       </c>
       <c r="B41" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A41)</f>
@@ -44561,7 +44684,7 @@
     </row>
     <row r="42" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="32">
-        <v>3951</v>
+        <v>6300</v>
       </c>
       <c r="B42" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A42)</f>
@@ -44726,7 +44849,7 @@
     </row>
     <row r="43" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="32">
-        <v>4611</v>
+        <v>6401</v>
       </c>
       <c r="B43" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A43)</f>
@@ -44891,7 +45014,7 @@
     </row>
     <row r="44" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="32">
-        <v>4930</v>
+        <v>6463</v>
       </c>
       <c r="B44" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A44)</f>
@@ -45056,7 +45179,7 @@
     </row>
     <row r="45" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="32">
-        <v>5590</v>
+        <v>6621</v>
       </c>
       <c r="B45" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A45)</f>
@@ -45221,7 +45344,7 @@
     </row>
     <row r="46" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="32">
-        <v>5881</v>
+        <v>6648</v>
       </c>
       <c r="B46" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A46)</f>
@@ -45386,7 +45509,7 @@
     </row>
     <row r="47" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="32">
-        <v>6621</v>
+        <v>6806</v>
       </c>
       <c r="B47" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A47)</f>
@@ -45551,7 +45674,7 @@
     </row>
     <row r="48" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="32">
-        <v>6868</v>
+        <v>6911</v>
       </c>
       <c r="B48" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A48)</f>
@@ -45716,7 +45839,7 @@
     </row>
     <row r="49" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="32">
-        <v>6911</v>
+        <v>7030</v>
       </c>
       <c r="B49" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A49)</f>
@@ -45881,7 +46004,7 @@
     </row>
     <row r="50" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="32">
-        <v>7165</v>
+        <v>7031</v>
       </c>
       <c r="B50" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A50)</f>
@@ -46046,7 +46169,7 @@
     </row>
     <row r="51" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="32">
-        <v>7903</v>
+        <v>7504</v>
       </c>
       <c r="B51" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A51)</f>
@@ -46211,7 +46334,7 @@
     </row>
     <row r="52" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="32">
-        <v>8140</v>
+        <v>7605</v>
       </c>
       <c r="B52" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A52)</f>
@@ -46376,7 +46499,7 @@
     </row>
     <row r="53" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="32">
-        <v>8243</v>
+        <v>7718</v>
       </c>
       <c r="B53" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A53)</f>
@@ -46541,7 +46664,7 @@
     </row>
     <row r="54" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="32">
-        <v>8393</v>
+        <v>7759</v>
       </c>
       <c r="B54" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A54)</f>
@@ -46706,7 +46829,7 @@
     </row>
     <row r="55" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="32">
-        <v>9622</v>
+        <v>8067</v>
       </c>
       <c r="B55" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A55)</f>
@@ -46871,7 +46994,7 @@
     </row>
     <row r="56" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="32">
-        <v>9643</v>
+        <v>9468</v>
       </c>
       <c r="B56" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A56)</f>
@@ -47036,7 +47159,7 @@
     </row>
     <row r="57" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="32">
-        <v>10223</v>
+        <v>9624</v>
       </c>
       <c r="B57" s="33">
         <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A57)</f>
@@ -47195,6 +47318,501 @@
         <v>0</v>
       </c>
       <c r="AO57" s="37">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="32">
+        <v>10352</v>
+      </c>
+      <c r="B58" s="33">
+        <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A58)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!J$2:J$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!K$2:K$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!L$2:L$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!M$2:M$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!N$2:N$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!O$2:O$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="33">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!I$2:I$1000) * 3</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="34">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="34">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!P$2:P$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="S58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!Q$2:Q$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!R$2:R$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!S$2:S$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!T$2:T$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!U$2:U$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="33">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="33">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!$W$2:$W$1000, "p")</f>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!$W$2:$W$1000, "s")</f>
+        <v>0</v>
+      </c>
+      <c r="AH58" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A58, MatchScoutingData!$W$2:$W$1000, "d")</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="33">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AL58" s="36">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AM58" s="36">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AN58" s="37">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AO58" s="37">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="32">
+        <v>10404</v>
+      </c>
+      <c r="B59" s="33">
+        <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A59)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!J$2:J$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!K$2:K$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!L$2:L$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!M$2:M$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!N$2:N$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!O$2:O$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="33">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!I$2:I$1000) * 3</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="34">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="34">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!P$2:P$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!Q$2:Q$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!R$2:R$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!S$2:S$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!T$2:T$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!U$2:U$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="33">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="33">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!$W$2:$W$1000, "p")</f>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!$W$2:$W$1000, "s")</f>
+        <v>0</v>
+      </c>
+      <c r="AH59" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A59, MatchScoutingData!$W$2:$W$1000, "d")</f>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AK59" s="33">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AL59" s="36">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AM59" s="36">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AN59" s="37">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AO59" s="37">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="32">
+        <v>10714</v>
+      </c>
+      <c r="B60" s="33">
+        <f>COUNTIF(MatchScoutingData!G$2:G$1000, $A60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!J$2:J$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!K$2:K$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!L$2:L$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!M$2:M$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!N$2:N$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!O$2:O$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="33">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="33">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="33">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="33">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!I$2:I$1000) * 3</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="34">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="34">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!P$2:P$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!Q$2:Q$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="T60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!R$2:R$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!S$2:S$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="V60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!T$2:T$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="33">
+        <f>SUMIF(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!U$2:U$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="X60" s="33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="33">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="33">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="33">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="35">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!$W$2:$W$1000, "p")</f>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!$W$2:$W$1000, "s")</f>
+        <v>0</v>
+      </c>
+      <c r="AH60" s="33">
+        <f>COUNTIFS(MatchScoutingData!$G$2:$G$1000, $A60, MatchScoutingData!$W$2:$W$1000, "d")</f>
+        <v>0</v>
+      </c>
+      <c r="AI60" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AK60" s="33">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AL60" s="36">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AM60" s="36">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AN60" s="37">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AO60" s="37">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -47223,7 +47841,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -47238,7 +47856,7 @@
     <row r="1" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="52" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -47248,7 +47866,7 @@
       <c r="H1" s="40"/>
       <c r="I1" s="41"/>
       <c r="J1" s="53" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
@@ -47257,19 +47875,19 @@
     <row r="2" spans="1:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="48" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="50" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="43" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="49" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="16"/>
@@ -47282,40 +47900,40 @@
         <v>6</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>297</v>
-      </c>
       <c r="M3" s="24" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -47323,51 +47941,51 @@
         <v>20</v>
       </c>
       <c r="B4" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C4" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D4" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E4" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F4" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G4" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H4" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I4" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A4,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A4,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J4" s="38">
-        <f t="shared" ref="J4:J35" si="0">PERCENTRANK(B$2:B$57, B4, 3)</f>
+        <f t="shared" ref="J4:J35" si="0">PERCENTRANK(B$2:B$60, B4, 3)</f>
         <v>0</v>
       </c>
       <c r="K4" s="38">
-        <f t="shared" ref="K4:K35" si="1">PERCENTRANK(D$2:D$57, D4, 3)</f>
+        <f t="shared" ref="K4:K35" si="1">PERCENTRANK(D$2:D$60, D4, 3)</f>
         <v>0</v>
       </c>
       <c r="L4" s="38">
-        <f t="shared" ref="L4:L35" si="2">PERCENTRANK(F$2:F$57, F4, 3)</f>
+        <f t="shared" ref="L4:L35" si="2">PERCENTRANK(F$2:F$60, F4, 3)</f>
         <v>0</v>
       </c>
       <c r="M4" s="38">
-        <f t="shared" ref="M4:M35" si="3">PERCENTRANK(H$2:H$57, H4, 3)</f>
+        <f t="shared" ref="M4:M35" si="3">PERCENTRANK(H$2:H$60, H4, 3)</f>
         <v>0</v>
       </c>
     </row>
@@ -47376,35 +47994,35 @@
         <v>191</v>
       </c>
       <c r="B5" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C5" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D5" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E5" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F5" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G5" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H5" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I5" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A5,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A5,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J5" s="38">
@@ -47429,35 +48047,35 @@
         <v>229</v>
       </c>
       <c r="B6" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C6" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D6" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E6" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F6" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G6" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H6" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I6" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A6,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A6,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J6" s="38">
@@ -47482,35 +48100,35 @@
         <v>250</v>
       </c>
       <c r="B7" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C7" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D7" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E7" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F7" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G7" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H7" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I7" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A7,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A7,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J7" s="38">
@@ -47532,38 +48150,38 @@
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="B8" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C8" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D8" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E8" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F8" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G8" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H8" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I8" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A8,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A8,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J8" s="38">
@@ -47585,38 +48203,38 @@
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B9" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C9" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E9" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F9" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G9" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H9" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I9" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A9,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A9,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J9" s="38">
@@ -47638,38 +48256,38 @@
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="B10" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C10" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D10" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E10" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F10" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G10" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H10" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I10" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A10,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A10,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J10" s="38">
@@ -47691,38 +48309,38 @@
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="B11" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C11" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D11" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E11" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F11" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G11" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H11" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I11" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A11,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A11,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J11" s="38">
@@ -47744,38 +48362,38 @@
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="B12" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C12" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D12" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E12" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F12" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G12" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H12" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I12" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A12,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A12,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J12" s="38">
@@ -47797,38 +48415,38 @@
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
-        <v>564</v>
+        <v>810</v>
       </c>
       <c r="B13" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C13" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D13" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E13" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F13" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G13" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H13" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I13" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A13,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A13,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J13" s="38">
@@ -47850,38 +48468,38 @@
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
-        <v>578</v>
+        <v>870</v>
       </c>
       <c r="B14" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C14" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D14" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E14" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F14" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G14" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H14" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I14" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A14,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A14,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J14" s="38">
@@ -47903,38 +48521,38 @@
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
-        <v>639</v>
+        <v>1126</v>
       </c>
       <c r="B15" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C15" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E15" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F15" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G15" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H15" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I15" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A15,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A15,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J15" s="38">
@@ -47956,38 +48574,38 @@
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
-        <v>695</v>
+        <v>1468</v>
       </c>
       <c r="B16" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C16" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D16" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E16" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F16" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G16" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H16" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I16" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A16,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A16,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J16" s="38">
@@ -48009,38 +48627,38 @@
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
-        <v>1126</v>
+        <v>1493</v>
       </c>
       <c r="B17" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C17" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D17" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E17" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F17" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G17" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H17" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I17" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A17,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A17,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J17" s="38">
@@ -48062,38 +48680,38 @@
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
-        <v>1308</v>
+        <v>1518</v>
       </c>
       <c r="B18" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C18" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E18" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F18" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G18" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H18" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I18" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A18,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A18,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J18" s="38">
@@ -48115,38 +48733,38 @@
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
-        <v>1405</v>
+        <v>1591</v>
       </c>
       <c r="B19" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C19" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D19" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E19" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F19" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G19" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H19" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I19" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A19,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A19,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J19" s="38">
@@ -48168,38 +48786,38 @@
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
-        <v>1507</v>
+        <v>1796</v>
       </c>
       <c r="B20" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C20" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D20" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E20" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F20" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G20" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H20" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I20" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A20,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A20,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J20" s="38">
@@ -48221,38 +48839,38 @@
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="32">
-        <v>1511</v>
+        <v>1880</v>
       </c>
       <c r="B21" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C21" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D21" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E21" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F21" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G21" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H21" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I21" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A21,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A21,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J21" s="38">
@@ -48274,38 +48892,38 @@
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
-        <v>1518</v>
+        <v>2053</v>
       </c>
       <c r="B22" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C22" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D22" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E22" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F22" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G22" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H22" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I22" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A22,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A22,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J22" s="38">
@@ -48327,38 +48945,38 @@
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="32">
-        <v>1559</v>
+        <v>2601</v>
       </c>
       <c r="B23" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C23" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D23" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E23" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F23" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G23" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H23" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I23" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A23,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A23,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J23" s="38">
@@ -48380,38 +48998,38 @@
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
-        <v>1585</v>
+        <v>2791</v>
       </c>
       <c r="B24" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C24" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D24" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E24" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F24" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G24" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H24" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I24" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A24,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A24,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J24" s="38">
@@ -48433,38 +49051,38 @@
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="32">
-        <v>1591</v>
+        <v>2869</v>
       </c>
       <c r="B25" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C25" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D25" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E25" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F25" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G25" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H25" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I25" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A25,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A25,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J25" s="38">
@@ -48486,38 +49104,38 @@
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
-        <v>1787</v>
+        <v>2875</v>
       </c>
       <c r="B26" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C26" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D26" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E26" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F26" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G26" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H26" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I26" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A26,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A26,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J26" s="38">
@@ -48539,38 +49157,38 @@
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="32">
-        <v>2010</v>
+        <v>3003</v>
       </c>
       <c r="B27" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C27" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D27" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E27" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F27" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G27" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H27" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I27" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A27,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A27,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J27" s="38">
@@ -48592,38 +49210,38 @@
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
-        <v>2228</v>
+        <v>3044</v>
       </c>
       <c r="B28" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C28" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D28" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E28" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F28" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G28" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H28" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I28" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A28,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A28,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J28" s="38">
@@ -48645,38 +49263,38 @@
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
-        <v>2252</v>
+        <v>3117</v>
       </c>
       <c r="B29" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C29" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D29" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E29" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F29" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G29" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H29" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I29" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A29,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A29,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J29" s="38">
@@ -48698,38 +49316,38 @@
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="32">
-        <v>2340</v>
+        <v>3171</v>
       </c>
       <c r="B30" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C30" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D30" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E30" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F30" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G30" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H30" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I30" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A30,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A30,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J30" s="38">
@@ -48751,38 +49369,38 @@
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="32">
-        <v>2614</v>
+        <v>3173</v>
       </c>
       <c r="B31" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C31" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D31" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E31" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F31" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G31" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H31" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I31" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A31,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A31,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J31" s="38">
@@ -48804,38 +49422,38 @@
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="32">
-        <v>2791</v>
+        <v>3181</v>
       </c>
       <c r="B32" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C32" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D32" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E32" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F32" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G32" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H32" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I32" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A32,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A32,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J32" s="38">
@@ -48857,38 +49475,38 @@
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32">
-        <v>3003</v>
+        <v>3360</v>
       </c>
       <c r="B33" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C33" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D33" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E33" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F33" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G33" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H33" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I33" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A33,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A33,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J33" s="38">
@@ -48910,38 +49528,38 @@
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
-        <v>3004</v>
+        <v>3550</v>
       </c>
       <c r="B34" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C34" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D34" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E34" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F34" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G34" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H34" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I34" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A34,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A34,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J34" s="38">
@@ -48963,38 +49581,38 @@
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="32">
-        <v>3015</v>
+        <v>3950</v>
       </c>
       <c r="B35" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C35" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D35" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E35" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F35" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G35" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H35" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I35" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A35,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A35,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J35" s="38">
@@ -49016,91 +49634,91 @@
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="32">
-        <v>3044</v>
+        <v>4122</v>
       </c>
       <c r="B36" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C36" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D36" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E36" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F36" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G36" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H36" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I36" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A36,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A36,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J36" s="38">
-        <f t="shared" ref="J36:J57" si="4">PERCENTRANK(B$2:B$57, B36, 3)</f>
+        <f t="shared" ref="J36:J60" si="4">PERCENTRANK(B$2:B$60, B36, 3)</f>
         <v>0</v>
       </c>
       <c r="K36" s="38">
-        <f t="shared" ref="K36:K57" si="5">PERCENTRANK(D$2:D$57, D36, 3)</f>
+        <f t="shared" ref="K36:K60" si="5">PERCENTRANK(D$2:D$60, D36, 3)</f>
         <v>0</v>
       </c>
       <c r="L36" s="38">
-        <f t="shared" ref="L36:L57" si="6">PERCENTRANK(F$2:F$57, F36, 3)</f>
+        <f t="shared" ref="L36:L60" si="6">PERCENTRANK(F$2:F$60, F36, 3)</f>
         <v>0</v>
       </c>
       <c r="M36" s="38">
-        <f t="shared" ref="M36:M57" si="7">PERCENTRANK(H$2:H$57, H36, 3)</f>
+        <f t="shared" ref="M36:M60" si="7">PERCENTRANK(H$2:H$60, H36, 3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="32">
-        <v>3171</v>
+        <v>4458</v>
       </c>
       <c r="B37" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C37" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D37" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E37" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F37" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G37" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H37" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I37" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A37,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A37,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J37" s="38">
@@ -49122,38 +49740,38 @@
     </row>
     <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="32">
-        <v>3173</v>
+        <v>4571</v>
       </c>
       <c r="B38" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C38" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D38" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E38" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F38" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G38" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H38" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I38" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A38,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A38,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J38" s="38">
@@ -49175,38 +49793,38 @@
     </row>
     <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="32">
-        <v>3181</v>
+        <v>5149</v>
       </c>
       <c r="B39" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C39" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D39" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E39" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F39" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G39" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H39" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I39" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A39,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A39,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J39" s="38">
@@ -49228,38 +49846,38 @@
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="32">
-        <v>3799</v>
+        <v>5528</v>
       </c>
       <c r="B40" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C40" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D40" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E40" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F40" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G40" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H40" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I40" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A40,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A40,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J40" s="38">
@@ -49281,38 +49899,38 @@
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="32">
-        <v>3838</v>
+        <v>5881</v>
       </c>
       <c r="B41" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C41" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D41" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E41" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F41" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G41" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H41" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I41" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A41,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A41,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J41" s="38">
@@ -49334,38 +49952,38 @@
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="32">
-        <v>3951</v>
+        <v>6300</v>
       </c>
       <c r="B42" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C42" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D42" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E42" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F42" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G42" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H42" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I42" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A42,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A42,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J42" s="38">
@@ -49387,38 +50005,38 @@
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="32">
-        <v>4611</v>
+        <v>6401</v>
       </c>
       <c r="B43" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C43" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D43" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E43" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F43" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G43" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H43" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I43" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A43,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A43,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J43" s="38">
@@ -49440,38 +50058,38 @@
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="32">
-        <v>4930</v>
+        <v>6463</v>
       </c>
       <c r="B44" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C44" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D44" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E44" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F44" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G44" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H44" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I44" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A44,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A44,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J44" s="38">
@@ -49493,38 +50111,38 @@
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="32">
-        <v>5590</v>
+        <v>6621</v>
       </c>
       <c r="B45" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C45" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D45" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E45" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F45" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G45" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H45" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I45" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A45,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A45,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J45" s="38">
@@ -49546,38 +50164,38 @@
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="32">
-        <v>5881</v>
+        <v>6648</v>
       </c>
       <c r="B46" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C46" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D46" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E46" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F46" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G46" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H46" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I46" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A46,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A46,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J46" s="38">
@@ -49599,38 +50217,38 @@
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="32">
-        <v>6621</v>
+        <v>6806</v>
       </c>
       <c r="B47" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C47" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D47" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E47" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F47" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G47" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H47" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I47" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A47,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A47,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J47" s="38">
@@ -49652,38 +50270,38 @@
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="32">
-        <v>6868</v>
+        <v>6911</v>
       </c>
       <c r="B48" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C48" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D48" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E48" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F48" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G48" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H48" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I48" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A48,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A48,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J48" s="38">
@@ -49705,38 +50323,38 @@
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="32">
-        <v>6911</v>
+        <v>7030</v>
       </c>
       <c r="B49" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C49" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D49" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E49" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F49" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G49" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H49" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I49" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A49,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A49,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J49" s="38">
@@ -49758,38 +50376,38 @@
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="32">
-        <v>7165</v>
+        <v>7031</v>
       </c>
       <c r="B50" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C50" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D50" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E50" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F50" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G50" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H50" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I50" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A50,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A50,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J50" s="38">
@@ -49811,38 +50429,38 @@
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="32">
-        <v>7903</v>
+        <v>7504</v>
       </c>
       <c r="B51" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C51" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D51" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E51" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F51" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G51" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H51" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I51" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A51,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A51,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J51" s="38">
@@ -49864,38 +50482,38 @@
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="32">
-        <v>8140</v>
+        <v>7605</v>
       </c>
       <c r="B52" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C52" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D52" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E52" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F52" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G52" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H52" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I52" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A52,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A52,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J52" s="38">
@@ -49917,38 +50535,38 @@
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="32">
-        <v>8243</v>
+        <v>7718</v>
       </c>
       <c r="B53" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C53" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D53" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E53" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F53" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G53" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H53" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I53" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A53,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A53,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J53" s="38">
@@ -49970,38 +50588,38 @@
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="32">
-        <v>8393</v>
+        <v>7759</v>
       </c>
       <c r="B54" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C54" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D54" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E54" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F54" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G54" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H54" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I54" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A54,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A54,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J54" s="38">
@@ -50023,38 +50641,38 @@
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="32">
-        <v>9622</v>
+        <v>8067</v>
       </c>
       <c r="B55" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C55" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D55" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E55" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F55" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G55" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H55" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I55" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A55,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A55,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J55" s="38">
@@ -50076,38 +50694,38 @@
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="32">
-        <v>9643</v>
+        <v>9468</v>
       </c>
       <c r="B56" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C56" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D56" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E56" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F56" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G56" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H56" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I56" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A56,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A56,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J56" s="38">
@@ -50129,38 +50747,38 @@
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="32">
-        <v>10223</v>
+        <v>9624</v>
       </c>
       <c r="B57" s="33">
-        <f>INDEX('Team Scores'!P$4:P$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="C57" s="33">
-        <f>INDEX('Team Scores'!Q$4:Q$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="D57" s="33">
-        <f>INDEX('Team Scores'!AD$4:AD$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="E57" s="33">
-        <f>INDEX('Team Scores'!AE$4:AE$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="F57" s="33">
-        <f>INDEX('Team Scores'!AL$4:AL$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="G57" s="33">
-        <f>INDEX('Team Scores'!AM$4:AM$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="H57" s="33">
-        <f>INDEX('Team Scores'!AN$4:AN$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="I57" s="33">
-        <f>INDEX('Team Scores'!AO$4:AO$57, MATCH(A57,'Team Scores'!A$4:A$57, 0))</f>
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A57,'Team Scores'!A$4:A$60, 0))</f>
         <v>0</v>
       </c>
       <c r="J57" s="38">
@@ -50176,6 +50794,165 @@
         <v>0</v>
       </c>
       <c r="M57" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="32">
+        <v>10352</v>
+      </c>
+      <c r="B58" s="33">
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="33">
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="33">
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="33">
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="33">
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="33">
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="33">
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="33">
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A58,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="32">
+        <v>10404</v>
+      </c>
+      <c r="B59" s="33">
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="33">
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="33">
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="33">
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="33">
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="33">
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="33">
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="33">
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A59,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="32">
+        <v>10714</v>
+      </c>
+      <c r="B60" s="33">
+        <f>INDEX('Team Scores'!P$4:P$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="33">
+        <f>INDEX('Team Scores'!Q$4:Q$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="33">
+        <f>INDEX('Team Scores'!AD$4:AD$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="33">
+        <f>INDEX('Team Scores'!AE$4:AE$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="33">
+        <f>INDEX('Team Scores'!AL$4:AL$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="33">
+        <f>INDEX('Team Scores'!AM$4:AM$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="33">
+        <f>INDEX('Team Scores'!AN$4:AN$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="33">
+        <f>INDEX('Team Scores'!AO$4:AO$60, MATCH(A60,'Team Scores'!A$4:A$60, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -50190,7 +50967,7 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J4:M57">
+  <conditionalFormatting sqref="J4:M60">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -50202,7 +50979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:U57">
+  <conditionalFormatting sqref="R4:U60">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -50234,10 +51011,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -50951,7 +51728,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -50967,22 +51744,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -51108,7 +51885,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>'Team Summary'!A8</f>
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="B6">
         <f>'Team Summary'!B8</f>
@@ -51138,7 +51915,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>'Team Summary'!A9</f>
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B7">
         <f>'Team Summary'!B9</f>
@@ -51168,7 +51945,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>'Team Summary'!A10</f>
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="B8">
         <f>'Team Summary'!B10</f>
@@ -51198,7 +51975,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>'Team Summary'!A11</f>
-        <v>424</v>
+        <v>578</v>
       </c>
       <c r="B9">
         <f>'Team Summary'!B11</f>
@@ -51228,7 +52005,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>'Team Summary'!A12</f>
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="B10">
         <f>'Team Summary'!B12</f>
@@ -51258,7 +52035,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>'Team Summary'!A13</f>
-        <v>564</v>
+        <v>810</v>
       </c>
       <c r="B11">
         <f>'Team Summary'!B13</f>
@@ -51288,7 +52065,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>'Team Summary'!A14</f>
-        <v>578</v>
+        <v>870</v>
       </c>
       <c r="B12">
         <f>'Team Summary'!B14</f>
@@ -51318,7 +52095,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>'Team Summary'!A15</f>
-        <v>639</v>
+        <v>1126</v>
       </c>
       <c r="B13">
         <f>'Team Summary'!B15</f>
@@ -51348,7 +52125,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>'Team Summary'!A16</f>
-        <v>695</v>
+        <v>1468</v>
       </c>
       <c r="B14">
         <f>'Team Summary'!B16</f>
@@ -51378,7 +52155,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>'Team Summary'!A17</f>
-        <v>1126</v>
+        <v>1493</v>
       </c>
       <c r="B15">
         <f>'Team Summary'!B17</f>
@@ -51408,7 +52185,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>'Team Summary'!A18</f>
-        <v>1308</v>
+        <v>1518</v>
       </c>
       <c r="B16">
         <f>'Team Summary'!B18</f>
@@ -51438,7 +52215,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>'Team Summary'!A19</f>
-        <v>1405</v>
+        <v>1591</v>
       </c>
       <c r="B17">
         <f>'Team Summary'!B19</f>
@@ -51468,7 +52245,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>'Team Summary'!A20</f>
-        <v>1507</v>
+        <v>1796</v>
       </c>
       <c r="B18">
         <f>'Team Summary'!B20</f>
@@ -51498,7 +52275,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>'Team Summary'!A21</f>
-        <v>1511</v>
+        <v>1880</v>
       </c>
       <c r="B19">
         <f>'Team Summary'!B21</f>
@@ -51528,7 +52305,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>'Team Summary'!A22</f>
-        <v>1518</v>
+        <v>2053</v>
       </c>
       <c r="B20">
         <f>'Team Summary'!B22</f>
@@ -51558,7 +52335,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>'Team Summary'!A23</f>
-        <v>1559</v>
+        <v>2601</v>
       </c>
       <c r="B21">
         <f>'Team Summary'!B23</f>
@@ -51588,7 +52365,7 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>'Team Summary'!A24</f>
-        <v>1585</v>
+        <v>2791</v>
       </c>
       <c r="B22">
         <f>'Team Summary'!B24</f>
@@ -51618,7 +52395,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>'Team Summary'!A25</f>
-        <v>1591</v>
+        <v>2869</v>
       </c>
       <c r="B23">
         <f>'Team Summary'!B25</f>
@@ -51648,7 +52425,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>'Team Summary'!A26</f>
-        <v>1787</v>
+        <v>2875</v>
       </c>
       <c r="B24">
         <f>'Team Summary'!B26</f>
@@ -51678,7 +52455,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>'Team Summary'!A27</f>
-        <v>2010</v>
+        <v>3003</v>
       </c>
       <c r="B25">
         <f>'Team Summary'!B27</f>
@@ -51708,7 +52485,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>'Team Summary'!A28</f>
-        <v>2228</v>
+        <v>3044</v>
       </c>
       <c r="B26">
         <f>'Team Summary'!B28</f>
@@ -51738,7 +52515,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>'Team Summary'!A29</f>
-        <v>2252</v>
+        <v>3117</v>
       </c>
       <c r="B27">
         <f>'Team Summary'!B29</f>
@@ -51768,7 +52545,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>'Team Summary'!A30</f>
-        <v>2340</v>
+        <v>3171</v>
       </c>
       <c r="B28">
         <f>'Team Summary'!B30</f>
@@ -51798,7 +52575,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>'Team Summary'!A31</f>
-        <v>2614</v>
+        <v>3173</v>
       </c>
       <c r="B29">
         <f>'Team Summary'!B31</f>
@@ -51828,7 +52605,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>'Team Summary'!A32</f>
-        <v>2791</v>
+        <v>3181</v>
       </c>
       <c r="B30">
         <f>'Team Summary'!B32</f>
@@ -51858,7 +52635,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>'Team Summary'!A33</f>
-        <v>3003</v>
+        <v>3360</v>
       </c>
       <c r="B31">
         <f>'Team Summary'!B33</f>
@@ -51888,7 +52665,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>'Team Summary'!A34</f>
-        <v>3004</v>
+        <v>3550</v>
       </c>
       <c r="B32">
         <f>'Team Summary'!B34</f>
@@ -51918,7 +52695,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>'Team Summary'!A35</f>
-        <v>3015</v>
+        <v>3950</v>
       </c>
       <c r="B33">
         <f>'Team Summary'!B35</f>
@@ -51948,7 +52725,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>'Team Summary'!A36</f>
-        <v>3044</v>
+        <v>4122</v>
       </c>
       <c r="B34">
         <f>'Team Summary'!B36</f>
@@ -51978,7 +52755,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>'Team Summary'!A37</f>
-        <v>3171</v>
+        <v>4458</v>
       </c>
       <c r="B35">
         <f>'Team Summary'!B37</f>
@@ -52008,7 +52785,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>'Team Summary'!A38</f>
-        <v>3173</v>
+        <v>4571</v>
       </c>
       <c r="B36">
         <f>'Team Summary'!B38</f>
@@ -52038,7 +52815,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>'Team Summary'!A39</f>
-        <v>3181</v>
+        <v>5149</v>
       </c>
       <c r="B37">
         <f>'Team Summary'!B39</f>
@@ -52068,7 +52845,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>'Team Summary'!A40</f>
-        <v>3799</v>
+        <v>5528</v>
       </c>
       <c r="B38">
         <f>'Team Summary'!B40</f>
@@ -52098,7 +52875,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>'Team Summary'!A41</f>
-        <v>3838</v>
+        <v>5881</v>
       </c>
       <c r="B39">
         <f>'Team Summary'!B41</f>
@@ -52128,7 +52905,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>'Team Summary'!A42</f>
-        <v>3951</v>
+        <v>6300</v>
       </c>
       <c r="B40">
         <f>'Team Summary'!B42</f>
@@ -52158,7 +52935,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>'Team Summary'!A43</f>
-        <v>4611</v>
+        <v>6401</v>
       </c>
       <c r="B41">
         <f>'Team Summary'!B43</f>
@@ -52188,7 +52965,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>'Team Summary'!A44</f>
-        <v>4930</v>
+        <v>6463</v>
       </c>
       <c r="B42">
         <f>'Team Summary'!B44</f>
@@ -52218,7 +52995,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>'Team Summary'!A45</f>
-        <v>5590</v>
+        <v>6621</v>
       </c>
       <c r="B43">
         <f>'Team Summary'!B45</f>
@@ -52248,7 +53025,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>'Team Summary'!A46</f>
-        <v>5881</v>
+        <v>6648</v>
       </c>
       <c r="B44">
         <f>'Team Summary'!B46</f>
@@ -52278,7 +53055,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>'Team Summary'!A47</f>
-        <v>6621</v>
+        <v>6806</v>
       </c>
       <c r="B45">
         <f>'Team Summary'!B47</f>
@@ -52308,7 +53085,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>'Team Summary'!A48</f>
-        <v>6868</v>
+        <v>6911</v>
       </c>
       <c r="B46">
         <f>'Team Summary'!B48</f>
@@ -52338,7 +53115,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>'Team Summary'!A49</f>
-        <v>6911</v>
+        <v>7030</v>
       </c>
       <c r="B47">
         <f>'Team Summary'!B49</f>
@@ -52368,7 +53145,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>'Team Summary'!A50</f>
-        <v>7165</v>
+        <v>7031</v>
       </c>
       <c r="B48">
         <f>'Team Summary'!B50</f>
@@ -52398,7 +53175,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>'Team Summary'!A51</f>
-        <v>7903</v>
+        <v>7504</v>
       </c>
       <c r="B49">
         <f>'Team Summary'!B51</f>
@@ -52428,7 +53205,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>'Team Summary'!A52</f>
-        <v>8140</v>
+        <v>7605</v>
       </c>
       <c r="B50">
         <f>'Team Summary'!B52</f>
@@ -52458,7 +53235,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>'Team Summary'!A53</f>
-        <v>8243</v>
+        <v>7718</v>
       </c>
       <c r="B51">
         <f>'Team Summary'!B53</f>
@@ -52488,7 +53265,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>'Team Summary'!A54</f>
-        <v>8393</v>
+        <v>7759</v>
       </c>
       <c r="B52">
         <f>'Team Summary'!B54</f>
@@ -52518,7 +53295,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>'Team Summary'!A55</f>
-        <v>9622</v>
+        <v>8067</v>
       </c>
       <c r="B53">
         <f>'Team Summary'!B55</f>
@@ -52548,7 +53325,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>'Team Summary'!A56</f>
-        <v>9643</v>
+        <v>9468</v>
       </c>
       <c r="B54">
         <f>'Team Summary'!B56</f>
@@ -52578,7 +53355,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>'Team Summary'!A57</f>
-        <v>10223</v>
+        <v>9624</v>
       </c>
       <c r="B55">
         <f>'Team Summary'!B57</f>
@@ -52602,6 +53379,96 @@
       </c>
       <c r="G55">
         <f>'Team Summary'!G57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f>'Team Summary'!A58</f>
+        <v>10352</v>
+      </c>
+      <c r="B56">
+        <f>'Team Summary'!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>'Team Summary'!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>'Team Summary'!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>'Team Summary'!E58</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>'Team Summary'!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>'Team Summary'!G58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f>'Team Summary'!A59</f>
+        <v>10404</v>
+      </c>
+      <c r="B57">
+        <f>'Team Summary'!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>'Team Summary'!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>'Team Summary'!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>'Team Summary'!E59</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>'Team Summary'!F59</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>'Team Summary'!G59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f>'Team Summary'!A60</f>
+        <v>10714</v>
+      </c>
+      <c r="B58">
+        <f>'Team Summary'!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>'Team Summary'!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>'Team Summary'!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>'Team Summary'!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>'Team Summary'!F60</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>'Team Summary'!G60</f>
         <v>0</v>
       </c>
     </row>
